--- a/Accessibility_500.xlsx
+++ b/Accessibility_500.xlsx
@@ -11,12 +11,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="1057">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="1059">
   <si>
     <t>Questions</t>
   </si>
   <si>
     <t>Answers</t>
+  </si>
+  <si>
+    <t>what is accessibility?
+Define Accessibility?</t>
+  </si>
+  <si>
+    <t>Accessibility is the practice of making your websites usable by as many people as possible. We traditionally think of this as being about people with disabilities, but the practice of making sites accessible also benefits other groups such as those using mobile devices, or those with slow network connections.
+You might also think of accessibility as treating everyone the same, and giving them equal opportunities, no matter what their ability or circumstances. Just as it is wrong to exclude someone from a physical building because they are in a wheelchair (modern public buildings generally have wheelchair ramps or elevators), it is also not right to exclude someone from a website because they have a visual impairment. We are all different, but we are all human, and therefore have the same human rights.
+Accessibility is the right thing to do. Providing accessible sites is part of the law in some countries, which can open up some significant markets that otherwise would not be able to use your services or buy your products.</t>
   </si>
   <si>
     <t>What are accessibility guidelines?</t>
@@ -54,118 +63,118 @@
 Audio conflict SHOULD NOT Narrative audio in games or interactive media should not talk over or conflict with native assistive technology.</t>
   </si>
   <si>
-    <t>Q1: When is it necessary to provide subtitles?</t>
-  </si>
-  <si>
-    <t>A1: Subtitles must be provided in the following situations:
+    <t>When is it necessary to provide subtitles?</t>
+  </si>
+  <si>
+    <t>Subtitles must be provided in the following situations:
 When it is feasible to do so.
 When they were originally included with a pre-recorded broadcast.
 When the content is intended for public-facing corporate communications, employment-related materials, or content for suppliers.</t>
   </si>
   <si>
-    <t>Q2: What is the purpose of providing subtitles?</t>
-  </si>
-  <si>
-    <t>A2: The purpose of providing subtitles is to enhance accessibility and understanding of audio or video content. They make content more inclusive for individuals who are deaf or hard of hearing and improve comprehension in various contexts.</t>
+    <t>What is the purpose of providing subtitles?</t>
+  </si>
+  <si>
+    <t>The purpose of providing subtitles is to enhance accessibility and understanding of audio or video content. They make content more inclusive for individuals who are deaf or hard of hearing and improve comprehension in various contexts.</t>
   </si>
   <si>
     <t xml:space="preserve">Q3: Can you provide subtitles for any type of content?
 </t>
   </si>
   <si>
-    <t>A3: Subtitles should be provided where feasible. However, the statement specifically mentions situations where subtitles are required, such as when they were originally part of a pre-recorded broadcast or when the content serves public-facing corporate communications, employment-related purposes, or supplier-related content.</t>
+    <t>Subtitles should be provided where feasible. However, the statement specifically mentions situations where subtitles are required, such as when they were originally part of a pre-recorded broadcast or when the content serves public-facing corporate communications, employment-related purposes, or supplier-related content.</t>
   </si>
   <si>
     <t xml:space="preserve">
 What other accessibility features might be considered in addition to subtitles?</t>
   </si>
   <si>
-    <t>A4: In addition to subtitles, other accessibility features like audio descriptions or sign language versions may also be considered, especially if they were included in the original broadcast or if they enhance the accessibility of the content for specific audiences.</t>
+    <t>In addition to subtitles, other accessibility features like audio descriptions or sign language versions may also be considered, especially if they were included in the original broadcast or if they enhance the accessibility of the content for specific audiences.</t>
   </si>
   <si>
     <t xml:space="preserve">Q1:Under what circumstances should audio described or sign language versions be provided, as mentioned in the statement?
 </t>
   </si>
   <si>
-    <t>A1:Audio described or sign language versions should be provided if they were originally included with the original broadcast.</t>
+    <t>Audio described or sign language versions should be provided if they were originally included with the original broadcast.</t>
   </si>
   <si>
     <t>Q2: What is the purpose of providing audio described or sign language versions according to the statement?</t>
   </si>
   <si>
-    <t>A2:The purpose of providing audio described or sign language versions is to ensure accessibility and inclusivity for individuals who are blind or visually impaired (audio description) and individuals who are deaf or hard of hearing (sign language), especially if these features were part of the original broadcast.</t>
+    <t>The purpose of providing audio described or sign language versions is to ensure accessibility and inclusivity for individuals who are blind or visually impaired (audio description) and individuals who are deaf or hard of hearing (sign language), especially if these features were part of the original broadcast.</t>
   </si>
   <si>
     <t xml:space="preserve">
 Q3:Are sign language versions always required for all types of content?</t>
   </si>
   <si>
-    <t>A3:No,sign language versions are required only if they were originally included with the original broadcast. It is not a blanket requirement for all content.</t>
+    <t>No,sign language versions are required only if they were originally included with the original broadcast. It is not a blanket requirement for all content.</t>
   </si>
   <si>
     <t>Q4:How do audio descriptions and sign language versions contribute to accessibility?</t>
   </si>
   <si>
-    <t>A4:Audio descriptions provide a narrated description of visual elements and actions in a video, making it accessible to individuals with visual impairments. Sign language versions involve the use of a sign language interpreter to convey spoken content through sign language, ensuring accessibility for individuals who are deaf or hard of hearing. These features enhance the accessibility and inclusivity of multimedia content.</t>
+    <t>Audio descriptions provide a narrated description of visual elements and actions in a video, making it accessible to individuals with visual impairments. Sign language versions involve the use of a sign language interpreter to convey spoken content through sign language, ensuring accessibility for individuals who are deaf or hard of hearing. These features enhance the accessibility and inclusivity of multimedia content.</t>
   </si>
   <si>
     <t>Q1:What are the alternative delivery options mentioned in the statement, in addition to transcripts?</t>
   </si>
   <si>
-    <t>A1:The statement mentions "other alternative delivery" options, which could include various accessibility features like subtitles, audio descriptions, or sign language versions, in addition to transcripts.</t>
+    <t>The statement mentions "other alternative delivery" options, which could include various accessibility features like subtitles, audio descriptions, or sign language versions, in addition to transcripts.</t>
   </si>
   <si>
     <t>Q2:What is the scope of providing transcripts, according to the statement?</t>
   </si>
   <si>
-    <t>A2:According to the statement, transcripts can be provided for all types of audio and visual content.</t>
+    <t>According to the statement, transcripts can be provided for all types of audio and visual content.</t>
   </si>
   <si>
     <t>Q3:Why might transcripts be provided for audio and visual content?</t>
   </si>
   <si>
-    <t>A3:Transcripts are provided to enhance accessibility and provide a textual representation of the content's spoken or visual elements. They improve comprehension for individuals who are deaf or hard of hearing and make content searchable and referenceable.</t>
+    <t>Transcripts are provided to enhance accessibility and provide a textual representation of the content's spoken or visual elements. They improve comprehension for individuals who are deaf or hard of hearing and make content searchable and referenceable.</t>
   </si>
   <si>
     <t xml:space="preserve">Q4:Are transcripts the only alternative for making audio and visual content accessible?
 </t>
   </si>
   <si>
-    <t>A4:No, transcripts are one of several alternatives mentioned in the statement. Other alternatives include features like subtitles, audio descriptions, and sign language versions. The choice of alternative delivery depends on the specific accessibility needs and preferences of the audience.</t>
+    <t>No, transcripts are one of several alternatives mentioned in the statement. Other alternatives include features like subtitles, audio descriptions, and sign language versions. The choice of alternative delivery depends on the specific accessibility needs and preferences of the audience.</t>
   </si>
   <si>
     <t xml:space="preserve">Q1: What feature does iOS support for providing multiple audio tracks in multimedia content?
 </t>
   </si>
   <si>
-    <t xml:space="preserve">A1: iOS supports the feature of multiple audio tracks, which can be used for purposes like audio description, in multimedia content.
+    <t xml:space="preserve">iOS supports the feature of multiple audio tracks, which can be used for purposes like audio description, in multimedia content.
 </t>
   </si>
   <si>
     <t>Q2: How can caption support be implemented in iOS for multimedia content playback?</t>
   </si>
   <si>
-    <t>A2: Caption support in iOS can be implemented using the standard video playback views and a supported codec. Further details can be found in the Multimedia Programming Guide.</t>
+    <t>Caption support in iOS can be implemented using the standard video playback views and a supported codec. Further details can be found in the Multimedia Programming Guide.</t>
   </si>
   <si>
     <t>Q3: Are captions available in full-screen mode on iOS?</t>
   </si>
   <si>
-    <t>A3: No, captions may not be available in full-screen mode on iOS</t>
+    <t>No, captions may not be available in full-screen mode on iOS</t>
   </si>
   <si>
     <t xml:space="preserve">Q4: How can you ensure accessibility features like closed or open captions and audio description are supported on iOS?
 </t>
   </si>
   <si>
-    <t>A4: To support accessibility features like closed or open captions and audio description on iOS, it is recommended to use the Apple Media player.</t>
+    <t>To support accessibility features like closed or open captions and audio description on iOS, it is recommended to use the Apple Media player.</t>
   </si>
   <si>
     <t xml:space="preserve">Q1: How does Android handle multiple audio tracks and captions by default?
 </t>
   </si>
   <si>
-    <t xml:space="preserve">A1:Android does not handle multiple audio tracks or captions automatically; developers are required to incorporate support for these features into their applications.
+    <t xml:space="preserve">Android does not handle multiple audio tracks or captions automatically; developers are required to incorporate support for these features into their applications.
 </t>
   </si>
   <si>
@@ -173,7 +182,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">A2:Developers must incorporate support for multiple audio tracks and captions in their Android applications by using a codec supported by the Android MediaPlayer API or by implementing a custom player.
+    <t xml:space="preserve">Developers must incorporate support for multiple audio tracks and captions in their Android applications by using a codec supported by the Android MediaPlayer API or by implementing a custom player.
 </t>
   </si>
   <si>
@@ -181,14 +190,14 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">A3:According to the statement, multimedia video content should incorporate closed captions and audio description to enhance accessibility.
+    <t xml:space="preserve">According to the statement, multimedia video content should incorporate closed captions and audio description to enhance accessibility.
 </t>
   </si>
   <si>
     <t>Q4:What is the recommended media player for BBC products on the Android platform?</t>
   </si>
   <si>
-    <t xml:space="preserve">A4:The recommended media player for all BBC products on the Android platform is the Standard Media Player for that platform.
+    <t xml:space="preserve">The recommended media player for all BBC products on the Android platform is the Standard Media Player for that platform.
 </t>
   </si>
   <si>
@@ -196,7 +205,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">A1:Use a media player that supports captions/subtitles and provides correctly labeled controls to turn them on and off. Avoid using Flash, as it's not supported on many devices. HTML5-based media players are recommended for delivering captions and audio descriptions via HTML.
+    <t xml:space="preserve">Use a media player that supports captions/subtitles and provides correctly labeled controls to turn them on and off. Avoid using Flash, as it's not supported on many devices. HTML5-based media players are recommended for delivering captions and audio descriptions via HTML.
 </t>
   </si>
   <si>
@@ -204,7 +213,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">A2: Yes, there are different options for delivering captions and audio descriptions in HTML media players. The choice of caption format may depend on the media player used. Audio descriptions can be delivered through text synchronization (though not currently supported), a secondary audio file, or a secondary video with an enhanced audio track.
+    <t xml:space="preserve">Yes, there are different options for delivering captions and audio descriptions in HTML media players. The choice of caption format may depend on the media player used. Audio descriptions can be delivered through text synchronization (though not currently supported), a secondary audio file, or a secondary video with an enhanced audio track.
 </t>
   </si>
   <si>
@@ -212,7 +221,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">A3: The BBC Standard Media Player, delivered via BUMP, should be used for all bbc.co.uk embedded video or audio content.
+    <t xml:space="preserve">The BBC Standard Media Player, delivered via BUMP, should be used for all bbc.co.uk embedded video or audio content.
 </t>
   </si>
   <si>
@@ -221,13 +230,13 @@
 </t>
   </si>
   <si>
-    <t>A4:For interactive media, use visible text and cues to support audio narrative or instructions. Ensure that this text is provided as text or as a text alternative so that it can be spoken by screen readers, ensuring accessibility.</t>
+    <t>For interactive media, use visible text and cues to support audio narrative or instructions. Ensure that this text is provided as text or as a text alternative so that it can be spoken by screen readers, ensuring accessibility.</t>
   </si>
   <si>
     <t>Q1: Why is autoplay discouraged in web and app design ?</t>
   </si>
   <si>
-    <t xml:space="preserve">A1: Autoplay for audio content is discouraged because it can be disruptive to users, particularly those with disabilities. It may conflict with screen reader audio, causing confusion for users who rely on screen readers. Additionally, unexpected audio can distress individuals with cognitive or sensory sensitivities. Autoplay can also disrupt the experience for people with low vision or cognitive impairments.
+    <t xml:space="preserve"> Autoplay for audio content is discouraged because it can be disruptive to users, particularly those with disabilities. It may conflict with screen reader audio, causing confusion for users who rely on screen readers. Additionally, unexpected audio can distress individuals with cognitive or sensory sensitivities. Autoplay can also disrupt the experience for people with low vision or cognitive impairments.
 </t>
   </si>
   <si>
@@ -235,7 +244,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">A2: For audio autoplay to be considered acceptable for accessibility, two conditions must be met:
+    <t xml:space="preserve">For audio autoplay to be considered acceptable for accessibility, two conditions must be met:
 1. Users must be made aware that autoplay will occur.
 2. A pause/stop/mute button must be provided to give users immediate control over the audio playback.
 </t>
@@ -245,7 +254,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">A3: Autoplay can be problematic for screen reader users because it can conflict with and speak over the screen reader's output. This overlap in audio can be confusing and frustrating for individuals who rely on screen readers to navigate and understand web content. It's essential to ensure that screen reader users have a clear and uninterrupted experience.
+    <t xml:space="preserve">Autoplay can be problematic for screen reader users because it can conflict with and speak over the screen reader's output. This overlap in audio can be confusing and frustrating for individuals who rely on screen readers to navigate and understand web content. It's essential to ensure that screen reader users have a clear and uninterrupted experience.
 </t>
   </si>
   <si>
@@ -253,13 +262,13 @@
 </t>
   </si>
   <si>
-    <t>A4: Autoplay that continues to the next content item should be handled with accessibility in mind. It must be indicated in an accessible way so that users are aware of this behavior. Additionally, users should be given the choice to opt out of autoplay, and there should be sufficient time for them to do so. This ensures that users have control over their experience.</t>
+    <t>Autoplay that continues to the next content item should be handled with accessibility in mind. It must be indicated in an accessible way so that users are aware of this behavior. Additionally, users should be given the choice to opt out of autoplay, and there should be sufficient time for them to do so. This ensures that users have control over their experience.</t>
   </si>
   <si>
     <t>Q5: What is the significance of user preferences persisting in the context of autoplay?</t>
   </si>
   <si>
-    <t>A5: User preferences persisting means that the choices made by users regarding autoplay settings should be remembered and applied across sessions. If a user chooses to opt out of autoplay or adjust audio settings, these preferences should be retained to provide a consistent and personalized experience for the user. This helps improve usability and accessibility.</t>
+    <t>User preferences persisting means that the choices made by users regarding autoplay settings should be remembered and applied across sessions. If a user chooses to opt out of autoplay or adjust audio settings, these preferences should be retained to provide a consistent and personalized experience for the user. This helps improve usability and accessibility.</t>
   </si>
   <si>
     <t xml:space="preserve">Q1: What is the purpose of audio ducking in iOS, and why might it not be sufficient for addressing audio conflicts?
@@ -284,14 +293,14 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">A3: It's recommended not to call the play method directly after loading audio in an iOS app to ensure that audio playback is user-initiated. This approach provides users with more control over when they start to hear audio content. The exception mentioned in the advice is when audio should be created and initiated by the user. In such cases, it's acceptable to start audio playback upon user interaction.
+    <t xml:space="preserve">It's recommended not to call the play method directly after loading audio in an iOS app to ensure that audio playback is user-initiated. This approach provides users with more control over when they start to hear audio content. The exception mentioned in the advice is when audio should be created and initiated by the user. In such cases, it's acceptable to start audio playback upon user interaction.
 </t>
   </si>
   <si>
     <t>Q1: What is the default behavior of TalkBack in Android regarding audio playback, and why is it important for accessibility?</t>
   </si>
   <si>
-    <t xml:space="preserve">A1: The default behavior of TalkBack in Android is to automatically decrease the volume of playback when audio begins. This behavior is essential for accessibility because it ensures that screen reader users can hear and understand the spoken content without interference from other audio elements.
+    <t xml:space="preserve">The default behavior of TalkBack in Android is to automatically decrease the volume of playback when audio begins. This behavior is essential for accessibility because it ensures that screen reader users can hear and understand the spoken content without interference from other audio elements.
 </t>
   </si>
   <si>
@@ -372,14 +381,14 @@
 </t>
   </si>
   <si>
-    <t>A5:Providing clear links to alternative formats in listing pages and other relevant sections is important for accessibility and user convenience. It ensures that users can easily discover and access alternative versions of the media content, making it more inclusive and accommodating for users with diverse needs and preferences.</t>
+    <t>Providing clear links to alternative formats in listing pages and other relevant sections is important for accessibility and user convenience. It ensures that users can easily discover and access alternative versions of the media content, making it more inclusive and accommodating for users with diverse needs and preferences.</t>
   </si>
   <si>
     <t xml:space="preserve">Q1: What is the purpose of providing information about formats in HTML, as demonstrated in the given example?
 </t>
   </si>
   <si>
-    <t xml:space="preserve">A1: The purpose of providing information about formats in HTML is to convey important details about the media content or web page. This information may include the date of publication, content duration, available formats (such as subtitles, sign language, audio description, high definition), and language. It helps users understand the content better and find alternative versions or formats that suit their needs.
+    <t xml:space="preserve">The purpose of providing information about formats in HTML is to convey important details about the media content or web page. This information may include the date of publication, content duration, available formats (such as subtitles, sign language, audio description, high definition), and language. It helps users understand the content better and find alternative versions or formats that suit their needs.
 </t>
   </si>
   <si>
@@ -387,7 +396,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">A2: Providing metadata and alternative format links benefits users, including those with disabilities, by:
+    <t xml:space="preserve">Providing metadata and alternative format links benefits users, including those with disabilities, by:
 Offering clear information about the content, making it easier to understand.
 Allowing users to select formats that accommodate their specific needs, such as text versions for screen reader users.
 Enhancing accessibility and inclusivity, ensuring that a wider range of users can access and comprehend the content effectively.   
@@ -398,8 +407,7 @@
 </t>
   </si>
   <si>
-    <t>A3:
-&lt;head&gt;
+    <t>&lt;head&gt;
   &lt;title&gt;Weekend Update&lt;/title&gt;
   &lt;meta name="description"
         content="A multimedia guide to your weekend"&gt;
@@ -4697,13 +4705,13 @@
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
@@ -4925,7 +4933,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="39.13"/>
-    <col customWidth="1" min="2" max="2" width="59.0"/>
+    <col customWidth="1" min="2" max="2" width="82.38"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4945,23 +4953,23 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="8" t="s">
@@ -4977,10 +4985,10 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4993,7 +5001,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="9" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="9" t="s">
@@ -5001,7 +5009,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="9" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="9" t="s">
@@ -5009,7 +5017,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="9" t="s">
         <v>20</v>
       </c>
       <c r="B11" s="9" t="s">
@@ -5025,7 +5033,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="10" t="s">
         <v>24</v>
       </c>
       <c r="B13" s="9" t="s">
@@ -5033,7 +5041,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="10" t="s">
         <v>26</v>
       </c>
       <c r="B14" s="9" t="s">
@@ -5041,7 +5049,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="10" t="s">
         <v>28</v>
       </c>
       <c r="B15" s="9" t="s">
@@ -5049,7 +5057,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="10" t="s">
         <v>30</v>
       </c>
       <c r="B16" s="9" t="s">
@@ -5057,7 +5065,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="10" t="s">
         <v>32</v>
       </c>
       <c r="B17" s="9" t="s">
@@ -5065,7 +5073,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="10" t="s">
         <v>34</v>
       </c>
       <c r="B18" s="9" t="s">
@@ -5073,7 +5081,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="10" t="s">
         <v>36</v>
       </c>
       <c r="B19" s="9" t="s">
@@ -5081,7 +5089,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="10" t="s">
         <v>38</v>
       </c>
       <c r="B20" s="9" t="s">
@@ -5089,7 +5097,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="10" t="s">
         <v>40</v>
       </c>
       <c r="B21" s="9" t="s">
@@ -5097,7 +5105,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="10" t="s">
         <v>42</v>
       </c>
       <c r="B22" s="9" t="s">
@@ -5105,7 +5113,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="10" t="s">
         <v>44</v>
       </c>
       <c r="B23" s="9" t="s">
@@ -5113,7 +5121,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="10" t="s">
         <v>46</v>
       </c>
       <c r="B24" s="9" t="s">
@@ -5129,7 +5137,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="10" t="s">
         <v>50</v>
       </c>
       <c r="B26" s="9" t="s">
@@ -5137,7 +5145,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="10" t="s">
         <v>52</v>
       </c>
       <c r="B27" s="9" t="s">
@@ -5145,7 +5153,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="10" t="s">
         <v>54</v>
       </c>
       <c r="B28" s="9" t="s">
@@ -5153,7 +5161,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="10" t="s">
         <v>56</v>
       </c>
       <c r="B29" s="9" t="s">
@@ -5161,7 +5169,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="10" t="s">
         <v>58</v>
       </c>
       <c r="B30" s="9" t="s">
@@ -5169,7 +5177,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="9" t="s">
+      <c r="A31" s="10" t="s">
         <v>60</v>
       </c>
       <c r="B31" s="9" t="s">
@@ -5177,23 +5185,23 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="9" t="s">
+      <c r="A32" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="B32" s="9" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="9" t="s">
+      <c r="A33" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="11" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="9" t="s">
+      <c r="A34" s="10" t="s">
         <v>66</v>
       </c>
       <c r="B34" s="9" t="s">
@@ -5201,7 +5209,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="9" t="s">
+      <c r="A35" s="10" t="s">
         <v>68</v>
       </c>
       <c r="B35" s="9" t="s">
@@ -5209,7 +5217,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="9" t="s">
+      <c r="A36" s="10" t="s">
         <v>70</v>
       </c>
       <c r="B36" s="9" t="s">
@@ -5217,23 +5225,23 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="9" t="s">
+      <c r="A37" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="10" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="9" t="s">
+      <c r="A38" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="10" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="9" t="s">
+      <c r="A39" s="10" t="s">
         <v>76</v>
       </c>
       <c r="B39" s="9" t="s">
@@ -5241,7 +5249,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="9" t="s">
+      <c r="A40" s="10" t="s">
         <v>78</v>
       </c>
       <c r="B40" s="9" t="s">
@@ -5249,71 +5257,71 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="9" t="s">
+      <c r="A41" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="B41" s="9" t="s">
+      <c r="B41" s="10" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="9" t="s">
+      <c r="A42" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="B42" s="9" t="s">
+      <c r="B42" s="10" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="9" t="s">
+      <c r="A43" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="B43" s="9" t="s">
+      <c r="B43" s="10" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="9" t="s">
+      <c r="A44" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="B44" s="9" t="s">
+      <c r="B44" s="10" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="9" t="s">
+      <c r="A45" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="B45" s="9" t="s">
+      <c r="B45" s="10" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="9" t="s">
+      <c r="A46" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="B46" s="9" t="s">
+      <c r="B46" s="10" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="9" t="s">
+      <c r="A47" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="B47" s="9" t="s">
+      <c r="B47" s="10" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="9" t="s">
+      <c r="A48" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="B48" s="9" t="s">
+      <c r="B48" s="10" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="9" t="s">
+      <c r="A49" s="10" t="s">
         <v>96</v>
       </c>
       <c r="B49" s="9" t="s">
@@ -5321,7 +5329,7 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="9" t="s">
+      <c r="A50" s="10" t="s">
         <v>98</v>
       </c>
       <c r="B50" s="9" t="s">
@@ -5329,7 +5337,7 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="9" t="s">
+      <c r="A51" s="10" t="s">
         <v>100</v>
       </c>
       <c r="B51" s="9" t="s">
@@ -5337,7 +5345,7 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="9" t="s">
+      <c r="A52" s="10" t="s">
         <v>102</v>
       </c>
       <c r="B52" s="9" t="s">
@@ -5345,250 +5353,250 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="9" t="s">
+      <c r="A53" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="B53" s="9" t="s">
+      <c r="B53" s="10" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="9" t="s">
+      <c r="A54" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="B54" s="9" t="s">
+      <c r="B54" s="10" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="9" t="s">
+      <c r="A55" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="B55" s="9" t="s">
+      <c r="B55" s="10" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="9" t="s">
+      <c r="A56" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="B56" s="9" t="s">
+      <c r="B56" s="10" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="9" t="s">
+      <c r="A57" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="B57" s="9" t="s">
+      <c r="B57" s="10" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="9" t="s">
+      <c r="A58" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="B58" s="9" t="s">
+      <c r="B58" s="10" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="9" t="s">
+      <c r="A59" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="B59" s="9" t="s">
+      <c r="B59" s="10" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="9" t="s">
+      <c r="A60" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="B60" s="9" t="s">
+      <c r="B60" s="10" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="9" t="s">
+      <c r="A61" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="B61" s="9" t="s">
+      <c r="B61" s="10" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="9" t="s">
+      <c r="A62" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="B62" s="9" t="s">
+      <c r="B62" s="10" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="9" t="s">
+      <c r="A63" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="B63" s="9" t="s">
+      <c r="B63" s="10" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="9" t="s">
+      <c r="A64" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="B64" s="9" t="s">
+      <c r="B64" s="10" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="9" t="s">
+      <c r="A65" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="B65" s="9" t="s">
+      <c r="B65" s="10" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="9" t="s">
+      <c r="A66" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="B66" s="9" t="s">
+      <c r="B66" s="10" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="9" t="s">
+      <c r="A67" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="B67" s="9" t="s">
+      <c r="B67" s="10" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="9" t="s">
+      <c r="A68" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="B68" s="9" t="s">
+      <c r="B68" s="10" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="9" t="s">
+      <c r="A69" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="B69" s="9" t="s">
+      <c r="B69" s="10" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="9" t="s">
+      <c r="A70" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="B70" s="9" t="s">
+      <c r="B70" s="10" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="9" t="s">
+      <c r="A71" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="B71" s="9" t="s">
+      <c r="B71" s="10" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="9" t="s">
+      <c r="A72" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="B72" s="9" t="s">
+      <c r="B72" s="10" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="9" t="s">
+      <c r="A73" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="B73" s="9" t="s">
+      <c r="B73" s="10" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="9" t="s">
+      <c r="A74" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="B74" s="9" t="s">
+      <c r="B74" s="10" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="9" t="s">
+      <c r="A75" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="B75" s="9" t="s">
+      <c r="B75" s="10" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="9" t="s">
+      <c r="A76" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="B76" s="9" t="s">
+      <c r="B76" s="10" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="9" t="s">
+      <c r="A77" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="B77" s="9" t="s">
+      <c r="B77" s="10" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="9" t="s">
+      <c r="A78" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="B78" s="9" t="s">
+      <c r="B78" s="10" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="9" t="s">
+      <c r="A79" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="B79" s="9" t="s">
+      <c r="B79" s="10" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="9" t="s">
+      <c r="A80" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="B80" s="9" t="s">
+      <c r="B80" s="10" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="9" t="s">
+      <c r="A81" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="B81" s="9" t="s">
+      <c r="B81" s="10" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="9" t="s">
+      <c r="A82" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="B82" s="9" t="s">
+      <c r="B82" s="10" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="9" t="s">
+      <c r="A83" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="B83" s="9" t="s">
+      <c r="B83" s="10" t="s">
         <v>165</v>
       </c>
     </row>
@@ -5596,151 +5604,151 @@
       <c r="A84" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="B84" s="9" t="s">
+      <c r="B84" s="10" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="12" t="s">
+      <c r="A85" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="B85" s="9" t="s">
+      <c r="B85" s="10" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="9" t="s">
+      <c r="A86" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="B86" s="9" t="s">
+      <c r="B86" s="10" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="9" t="s">
+      <c r="A87" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="B87" s="9" t="s">
+      <c r="B87" s="10" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="9" t="s">
+      <c r="A88" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="B88" s="9" t="s">
+      <c r="B88" s="10" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="9" t="s">
+      <c r="A89" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="B89" s="9" t="s">
+      <c r="B89" s="10" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="9" t="s">
+      <c r="A90" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="B90" s="9" t="s">
+      <c r="B90" s="10" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="9" t="s">
+      <c r="A91" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="B91" s="9" t="s">
+      <c r="B91" s="10" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="9" t="s">
+      <c r="A92" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="B92" s="9" t="s">
+      <c r="B92" s="10" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="9" t="s">
+      <c r="A93" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="B93" s="9" t="s">
+      <c r="B93" s="10" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="9" t="s">
+      <c r="A94" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="B94" s="9" t="s">
+      <c r="B94" s="10" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="9" t="s">
+      <c r="A95" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="B95" s="9" t="s">
+      <c r="B95" s="10" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="9" t="s">
+      <c r="A96" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="B96" s="9" t="s">
+      <c r="B96" s="10" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="9" t="s">
+      <c r="A97" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="B97" s="9" t="s">
+      <c r="B97" s="10" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="9" t="s">
+      <c r="A98" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="B98" s="9" t="s">
+      <c r="B98" s="10" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="9" t="s">
+      <c r="A99" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="B99" s="9" t="s">
+      <c r="B99" s="10" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="9" t="s">
+      <c r="A100" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="B100" s="9" t="s">
+      <c r="B100" s="10" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="9" t="s">
+      <c r="A101" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="B101" s="9" t="s">
+      <c r="B101" s="10" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="9" t="s">
+      <c r="A102" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="B102" s="9" t="s">
+      <c r="B102" s="10" t="s">
         <v>203</v>
       </c>
     </row>
@@ -5748,7 +5756,7 @@
       <c r="A103" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="B103" s="9" t="s">
+      <c r="B103" s="10" t="s">
         <v>205</v>
       </c>
     </row>
@@ -5756,383 +5764,383 @@
       <c r="A104" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="B104" s="9" t="s">
+      <c r="B104" s="10" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="9" t="s">
+      <c r="A105" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="B105" s="9" t="s">
+      <c r="B105" s="10" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="9" t="s">
+      <c r="A106" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="B106" s="9" t="s">
+      <c r="B106" s="10" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="9" t="s">
+      <c r="A107" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="B107" s="9" t="s">
+      <c r="B107" s="10" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="9" t="s">
+      <c r="A108" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="B108" s="9" t="s">
+      <c r="B108" s="10" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="9" t="s">
+      <c r="A109" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="B109" s="9" t="s">
+      <c r="B109" s="10" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="9" t="s">
+      <c r="A110" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="B110" s="9" t="s">
+      <c r="B110" s="10" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="9" t="s">
+      <c r="A111" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="B111" s="9" t="s">
+      <c r="B111" s="10" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="9" t="s">
+      <c r="A112" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="B112" s="9" t="s">
+      <c r="B112" s="10" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="9" t="s">
+      <c r="A113" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="B113" s="9" t="s">
+      <c r="B113" s="10" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="9" t="s">
+      <c r="A114" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="B114" s="9" t="s">
+      <c r="B114" s="10" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="9" t="s">
+      <c r="A115" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="B115" s="9" t="s">
+      <c r="B115" s="10" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="9" t="s">
+      <c r="A116" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="B116" s="9" t="s">
+      <c r="B116" s="10" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="9" t="s">
+      <c r="A117" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="B117" s="9" t="s">
+      <c r="B117" s="10" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="9" t="s">
+      <c r="A118" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="B118" s="9" t="s">
+      <c r="B118" s="10" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="9" t="s">
+      <c r="A119" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="B119" s="9" t="s">
+      <c r="B119" s="10" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="9" t="s">
+      <c r="A120" s="10" t="s">
         <v>238</v>
       </c>
-      <c r="B120" s="9" t="s">
+      <c r="B120" s="10" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="9" t="s">
+      <c r="A121" s="10" t="s">
         <v>240</v>
       </c>
-      <c r="B121" s="9" t="s">
+      <c r="B121" s="10" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="9" t="s">
+      <c r="A122" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="B122" s="9" t="s">
+      <c r="B122" s="10" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="9" t="s">
+      <c r="A123" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="B123" s="9" t="s">
+      <c r="B123" s="10" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="9" t="s">
+      <c r="A124" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="B124" s="9" t="s">
+      <c r="B124" s="10" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="9" t="s">
+      <c r="A125" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="B125" s="9" t="s">
+      <c r="B125" s="10" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="9" t="s">
+      <c r="A126" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="B126" s="9" t="s">
+      <c r="B126" s="10" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="9" t="s">
+      <c r="A127" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="B127" s="9" t="s">
+      <c r="B127" s="10" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="9" t="s">
+      <c r="A128" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="B128" s="9" t="s">
+      <c r="B128" s="10" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="9" t="s">
+      <c r="A129" s="10" t="s">
         <v>256</v>
       </c>
-      <c r="B129" s="9" t="s">
+      <c r="B129" s="10" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="9" t="s">
+      <c r="A130" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="B130" s="9" t="s">
+      <c r="B130" s="10" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="9" t="s">
+      <c r="A131" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="B131" s="9" t="s">
+      <c r="B131" s="10" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="9" t="s">
+      <c r="A132" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="B132" s="9" t="s">
+      <c r="B132" s="10" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="9" t="s">
+      <c r="A133" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="B133" s="9" t="s">
+      <c r="B133" s="10" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="9" t="s">
+      <c r="A134" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="B134" s="9" t="s">
+      <c r="B134" s="10" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="9" t="s">
+      <c r="A135" s="10" t="s">
         <v>268</v>
       </c>
-      <c r="B135" s="9" t="s">
+      <c r="B135" s="10" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="9" t="s">
+      <c r="A136" s="10" t="s">
         <v>270</v>
       </c>
-      <c r="B136" s="9" t="s">
+      <c r="B136" s="10" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="9" t="s">
+      <c r="A137" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="B137" s="9" t="s">
+      <c r="B137" s="10" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="9" t="s">
+      <c r="A138" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="B138" s="9" t="s">
+      <c r="B138" s="10" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="9" t="s">
+      <c r="A139" s="10" t="s">
         <v>276</v>
       </c>
-      <c r="B139" s="9" t="s">
+      <c r="B139" s="10" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="9" t="s">
+      <c r="A140" s="10" t="s">
         <v>278</v>
       </c>
-      <c r="B140" s="9" t="s">
+      <c r="B140" s="10" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="9" t="s">
+      <c r="A141" s="10" t="s">
         <v>280</v>
       </c>
-      <c r="B141" s="9" t="s">
+      <c r="B141" s="10" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="9" t="s">
+      <c r="A142" s="10" t="s">
         <v>282</v>
       </c>
-      <c r="B142" s="9" t="s">
+      <c r="B142" s="10" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="9" t="s">
+      <c r="A143" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="B143" s="9" t="s">
+      <c r="B143" s="10" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="9" t="s">
+      <c r="A144" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="B144" s="9" t="s">
+      <c r="B144" s="10" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="9" t="s">
+      <c r="A145" s="10" t="s">
         <v>288</v>
       </c>
-      <c r="B145" s="9" t="s">
+      <c r="B145" s="10" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="9" t="s">
+      <c r="A146" s="10" t="s">
         <v>290</v>
       </c>
-      <c r="B146" s="9" t="s">
+      <c r="B146" s="10" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="9" t="s">
+      <c r="A147" s="10" t="s">
         <v>292</v>
       </c>
-      <c r="B147" s="9" t="s">
+      <c r="B147" s="10" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="9" t="s">
+      <c r="A148" s="10" t="s">
         <v>294</v>
       </c>
-      <c r="B148" s="9" t="s">
+      <c r="B148" s="10" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="9" t="s">
+      <c r="A149" s="10" t="s">
         <v>296</v>
       </c>
-      <c r="B149" s="9" t="s">
+      <c r="B149" s="10" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="9" t="s">
+      <c r="A150" s="10" t="s">
         <v>298</v>
       </c>
-      <c r="B150" s="9" t="s">
+      <c r="B150" s="10" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="9" t="s">
+      <c r="A151" s="10" t="s">
         <v>300</v>
       </c>
-      <c r="B151" s="9" t="s">
+      <c r="B151" s="10" t="s">
         <v>301</v>
       </c>
     </row>
@@ -6140,287 +6148,287 @@
       <c r="A152" s="9" t="s">
         <v>302</v>
       </c>
-      <c r="B152" s="9" t="s">
+      <c r="B152" s="10" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="9" t="s">
+      <c r="A153" s="10" t="s">
         <v>304</v>
       </c>
-      <c r="B153" s="9" t="s">
+      <c r="B153" s="10" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="9" t="s">
+      <c r="A154" s="10" t="s">
         <v>306</v>
       </c>
-      <c r="B154" s="9" t="s">
+      <c r="B154" s="10" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="9" t="s">
+      <c r="A155" s="10" t="s">
         <v>308</v>
       </c>
-      <c r="B155" s="9" t="s">
+      <c r="B155" s="10" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="9" t="s">
+      <c r="A156" s="10" t="s">
         <v>310</v>
       </c>
-      <c r="B156" s="9" t="s">
+      <c r="B156" s="10" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="157">
-      <c r="A157" s="9" t="s">
+      <c r="A157" s="10" t="s">
         <v>312</v>
       </c>
-      <c r="B157" s="9" t="s">
+      <c r="B157" s="10" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="9" t="s">
+      <c r="A158" s="10" t="s">
         <v>314</v>
       </c>
-      <c r="B158" s="9" t="s">
+      <c r="B158" s="10" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="159">
-      <c r="A159" s="9" t="s">
+      <c r="A159" s="10" t="s">
         <v>316</v>
       </c>
-      <c r="B159" s="9" t="s">
+      <c r="B159" s="10" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="160">
-      <c r="A160" s="9" t="s">
+      <c r="A160" s="10" t="s">
         <v>318</v>
       </c>
-      <c r="B160" s="9" t="s">
+      <c r="B160" s="10" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="9" t="s">
+      <c r="A161" s="10" t="s">
         <v>320</v>
       </c>
-      <c r="B161" s="9" t="s">
+      <c r="B161" s="10" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="9" t="s">
+      <c r="A162" s="10" t="s">
         <v>322</v>
       </c>
-      <c r="B162" s="9" t="s">
+      <c r="B162" s="10" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="9" t="s">
+      <c r="A163" s="10" t="s">
         <v>324</v>
       </c>
-      <c r="B163" s="9" t="s">
+      <c r="B163" s="10" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="164">
-      <c r="A164" s="9" t="s">
+      <c r="A164" s="10" t="s">
         <v>326</v>
       </c>
-      <c r="B164" s="9" t="s">
+      <c r="B164" s="10" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="165">
-      <c r="A165" s="9" t="s">
+      <c r="A165" s="10" t="s">
         <v>328</v>
       </c>
-      <c r="B165" s="9" t="s">
+      <c r="B165" s="10" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="166">
-      <c r="A166" s="9" t="s">
+      <c r="A166" s="10" t="s">
         <v>330</v>
       </c>
-      <c r="B166" s="9" t="s">
+      <c r="B166" s="10" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="167">
-      <c r="A167" s="9" t="s">
+      <c r="A167" s="10" t="s">
         <v>332</v>
       </c>
-      <c r="B167" s="9" t="s">
+      <c r="B167" s="10" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="168">
-      <c r="A168" s="9" t="s">
+      <c r="A168" s="10" t="s">
         <v>334</v>
       </c>
-      <c r="B168" s="9" t="s">
+      <c r="B168" s="10" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="169">
-      <c r="A169" s="9" t="s">
+      <c r="A169" s="10" t="s">
         <v>336</v>
       </c>
-      <c r="B169" s="9" t="s">
+      <c r="B169" s="10" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="170">
-      <c r="A170" s="9" t="s">
+      <c r="A170" s="10" t="s">
         <v>338</v>
       </c>
-      <c r="B170" s="9" t="s">
+      <c r="B170" s="10" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="171">
-      <c r="A171" s="9" t="s">
+      <c r="A171" s="10" t="s">
         <v>340</v>
       </c>
-      <c r="B171" s="9" t="s">
+      <c r="B171" s="10" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="172">
-      <c r="A172" s="9" t="s">
+      <c r="A172" s="10" t="s">
         <v>342</v>
       </c>
-      <c r="B172" s="9" t="s">
+      <c r="B172" s="10" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="173">
-      <c r="A173" s="9" t="s">
+      <c r="A173" s="10" t="s">
         <v>344</v>
       </c>
-      <c r="B173" s="9" t="s">
+      <c r="B173" s="10" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="174">
-      <c r="A174" s="9" t="s">
+      <c r="A174" s="10" t="s">
         <v>346</v>
       </c>
-      <c r="B174" s="9" t="s">
+      <c r="B174" s="10" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="175">
-      <c r="A175" s="9" t="s">
+      <c r="A175" s="10" t="s">
         <v>348</v>
       </c>
-      <c r="B175" s="9" t="s">
+      <c r="B175" s="10" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="176">
-      <c r="A176" s="9" t="s">
+      <c r="A176" s="10" t="s">
         <v>350</v>
       </c>
-      <c r="B176" s="9" t="s">
+      <c r="B176" s="10" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="177">
-      <c r="A177" s="9" t="s">
+      <c r="A177" s="10" t="s">
         <v>352</v>
       </c>
-      <c r="B177" s="9" t="s">
+      <c r="B177" s="10" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="178">
-      <c r="A178" s="9" t="s">
+      <c r="A178" s="10" t="s">
         <v>354</v>
       </c>
-      <c r="B178" s="9" t="s">
+      <c r="B178" s="10" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="179">
-      <c r="A179" s="9" t="s">
+      <c r="A179" s="10" t="s">
         <v>356</v>
       </c>
-      <c r="B179" s="9" t="s">
+      <c r="B179" s="10" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="180">
-      <c r="A180" s="9" t="s">
+      <c r="A180" s="10" t="s">
         <v>358</v>
       </c>
-      <c r="B180" s="9" t="s">
+      <c r="B180" s="10" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="181">
-      <c r="A181" s="9" t="s">
+      <c r="A181" s="10" t="s">
         <v>360</v>
       </c>
-      <c r="B181" s="9" t="s">
+      <c r="B181" s="10" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="182">
-      <c r="A182" s="9" t="s">
+      <c r="A182" s="10" t="s">
         <v>362</v>
       </c>
-      <c r="B182" s="9" t="s">
+      <c r="B182" s="10" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="183">
-      <c r="A183" s="9" t="s">
+      <c r="A183" s="10" t="s">
         <v>364</v>
       </c>
-      <c r="B183" s="9" t="s">
+      <c r="B183" s="10" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="184">
-      <c r="A184" s="9" t="s">
+      <c r="A184" s="10" t="s">
         <v>366</v>
       </c>
-      <c r="B184" s="9" t="s">
+      <c r="B184" s="10" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="185">
-      <c r="A185" s="9" t="s">
+      <c r="A185" s="10" t="s">
         <v>368</v>
       </c>
-      <c r="B185" s="9" t="s">
+      <c r="B185" s="10" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="186">
-      <c r="A186" s="9" t="s">
+      <c r="A186" s="10" t="s">
         <v>370</v>
       </c>
-      <c r="B186" s="9" t="s">
+      <c r="B186" s="10" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="187">
-      <c r="A187" s="9" t="s">
+      <c r="A187" s="10" t="s">
         <v>372</v>
       </c>
-      <c r="B187" s="9" t="s">
+      <c r="B187" s="10" t="s">
         <v>373</v>
       </c>
     </row>
@@ -6428,1191 +6436,1191 @@
       <c r="A188" s="9" t="s">
         <v>374</v>
       </c>
-      <c r="B188" s="9" t="s">
+      <c r="B188" s="10" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="189">
-      <c r="A189" s="9" t="s">
+      <c r="A189" s="10" t="s">
         <v>376</v>
       </c>
-      <c r="B189" s="9" t="s">
+      <c r="B189" s="10" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="190">
-      <c r="A190" s="9" t="s">
+      <c r="A190" s="10" t="s">
         <v>378</v>
       </c>
-      <c r="B190" s="9" t="s">
+      <c r="B190" s="10" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="191">
-      <c r="A191" s="9" t="s">
+      <c r="A191" s="10" t="s">
         <v>380</v>
       </c>
-      <c r="B191" s="9" t="s">
+      <c r="B191" s="10" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="192">
-      <c r="A192" s="9" t="s">
+      <c r="A192" s="10" t="s">
         <v>382</v>
       </c>
-      <c r="B192" s="9" t="s">
+      <c r="B192" s="10" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="193">
-      <c r="A193" s="9" t="s">
+      <c r="A193" s="10" t="s">
         <v>384</v>
       </c>
-      <c r="B193" s="9" t="s">
+      <c r="B193" s="10" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="194">
-      <c r="A194" s="9" t="s">
+      <c r="A194" s="10" t="s">
         <v>386</v>
       </c>
-      <c r="B194" s="9" t="s">
+      <c r="B194" s="10" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="195">
-      <c r="A195" s="9" t="s">
+      <c r="A195" s="10" t="s">
         <v>388</v>
       </c>
-      <c r="B195" s="9" t="s">
+      <c r="B195" s="10" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="196">
-      <c r="A196" s="9" t="s">
+      <c r="A196" s="10" t="s">
         <v>390</v>
       </c>
-      <c r="B196" s="9" t="s">
+      <c r="B196" s="10" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="197">
-      <c r="A197" s="9" t="s">
+      <c r="A197" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="B197" s="9" t="s">
+      <c r="B197" s="10" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="198">
-      <c r="A198" s="9" t="s">
+      <c r="A198" s="10" t="s">
         <v>394</v>
       </c>
-      <c r="B198" s="9" t="s">
+      <c r="B198" s="10" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="199">
-      <c r="A199" s="9" t="s">
+      <c r="A199" s="10" t="s">
         <v>396</v>
       </c>
-      <c r="B199" s="9" t="s">
+      <c r="B199" s="10" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="200">
-      <c r="A200" s="9" t="s">
+      <c r="A200" s="10" t="s">
         <v>398</v>
       </c>
-      <c r="B200" s="9" t="s">
+      <c r="B200" s="10" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="201">
-      <c r="A201" s="9" t="s">
+      <c r="A201" s="10" t="s">
         <v>400</v>
       </c>
-      <c r="B201" s="9" t="s">
+      <c r="B201" s="10" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="202">
-      <c r="A202" s="9" t="s">
+      <c r="A202" s="10" t="s">
         <v>402</v>
       </c>
-      <c r="B202" s="9" t="s">
+      <c r="B202" s="10" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="203">
-      <c r="A203" s="9" t="s">
+      <c r="A203" s="10" t="s">
         <v>404</v>
       </c>
-      <c r="B203" s="9" t="s">
+      <c r="B203" s="10" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="204">
-      <c r="A204" s="9" t="s">
+      <c r="A204" s="10" t="s">
         <v>406</v>
       </c>
-      <c r="B204" s="9" t="s">
+      <c r="B204" s="10" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="205">
-      <c r="A205" s="9" t="s">
+      <c r="A205" s="10" t="s">
         <v>408</v>
       </c>
-      <c r="B205" s="9" t="s">
+      <c r="B205" s="10" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="206">
-      <c r="A206" s="9" t="s">
+      <c r="A206" s="10" t="s">
         <v>410</v>
       </c>
-      <c r="B206" s="9" t="s">
+      <c r="B206" s="10" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="207">
-      <c r="A207" s="9" t="s">
+      <c r="A207" s="10" t="s">
         <v>412</v>
       </c>
-      <c r="B207" s="9" t="s">
+      <c r="B207" s="10" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="208">
-      <c r="A208" s="9" t="s">
+      <c r="A208" s="10" t="s">
         <v>414</v>
       </c>
-      <c r="B208" s="9" t="s">
+      <c r="B208" s="10" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="209">
-      <c r="A209" s="9" t="s">
+      <c r="A209" s="10" t="s">
         <v>416</v>
       </c>
-      <c r="B209" s="9" t="s">
+      <c r="B209" s="10" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="210">
-      <c r="A210" s="9" t="s">
+      <c r="A210" s="10" t="s">
         <v>418</v>
       </c>
-      <c r="B210" s="9" t="s">
+      <c r="B210" s="10" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="211">
-      <c r="A211" s="9" t="s">
+      <c r="A211" s="10" t="s">
         <v>420</v>
       </c>
-      <c r="B211" s="9" t="s">
+      <c r="B211" s="10" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="212">
-      <c r="A212" s="9" t="s">
+      <c r="A212" s="10" t="s">
         <v>422</v>
       </c>
-      <c r="B212" s="9" t="s">
+      <c r="B212" s="10" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="213">
-      <c r="A213" s="9" t="s">
+      <c r="A213" s="10" t="s">
         <v>424</v>
       </c>
-      <c r="B213" s="9" t="s">
+      <c r="B213" s="10" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="214">
-      <c r="A214" s="9" t="s">
+      <c r="A214" s="10" t="s">
         <v>426</v>
       </c>
-      <c r="B214" s="9" t="s">
+      <c r="B214" s="10" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="215">
-      <c r="A215" s="9" t="s">
+      <c r="A215" s="10" t="s">
         <v>428</v>
       </c>
-      <c r="B215" s="9" t="s">
+      <c r="B215" s="10" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="216">
-      <c r="A216" s="9" t="s">
+      <c r="A216" s="10" t="s">
         <v>430</v>
       </c>
-      <c r="B216" s="9" t="s">
+      <c r="B216" s="10" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="217">
-      <c r="A217" s="9" t="s">
+      <c r="A217" s="10" t="s">
         <v>432</v>
       </c>
-      <c r="B217" s="9" t="s">
+      <c r="B217" s="10" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="218">
-      <c r="A218" s="9" t="s">
+      <c r="A218" s="10" t="s">
         <v>434</v>
       </c>
-      <c r="B218" s="9" t="s">
+      <c r="B218" s="10" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="219">
-      <c r="A219" s="9" t="s">
+      <c r="A219" s="10" t="s">
         <v>436</v>
       </c>
-      <c r="B219" s="9" t="s">
+      <c r="B219" s="10" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="220">
-      <c r="A220" s="9" t="s">
+      <c r="A220" s="10" t="s">
         <v>438</v>
       </c>
-      <c r="B220" s="9" t="s">
+      <c r="B220" s="10" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="221">
-      <c r="A221" s="9" t="s">
+      <c r="A221" s="10" t="s">
         <v>440</v>
       </c>
-      <c r="B221" s="9" t="s">
+      <c r="B221" s="10" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="222">
-      <c r="A222" s="9" t="s">
+      <c r="A222" s="10" t="s">
         <v>442</v>
       </c>
-      <c r="B222" s="9" t="s">
+      <c r="B222" s="10" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="223">
-      <c r="A223" s="9" t="s">
+      <c r="A223" s="10" t="s">
         <v>444</v>
       </c>
-      <c r="B223" s="9" t="s">
+      <c r="B223" s="10" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="224">
-      <c r="A224" s="9" t="s">
+      <c r="A224" s="10" t="s">
         <v>446</v>
       </c>
-      <c r="B224" s="9" t="s">
+      <c r="B224" s="10" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="225">
-      <c r="A225" s="9" t="s">
+      <c r="A225" s="10" t="s">
         <v>448</v>
       </c>
-      <c r="B225" s="9" t="s">
+      <c r="B225" s="10" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="226">
-      <c r="A226" s="9" t="s">
+      <c r="A226" s="10" t="s">
         <v>450</v>
       </c>
-      <c r="B226" s="9" t="s">
+      <c r="B226" s="10" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="227">
-      <c r="A227" s="9" t="s">
+      <c r="A227" s="10" t="s">
         <v>452</v>
       </c>
-      <c r="B227" s="9" t="s">
+      <c r="B227" s="10" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="228">
-      <c r="A228" s="9" t="s">
+      <c r="A228" s="10" t="s">
         <v>454</v>
       </c>
-      <c r="B228" s="9" t="s">
+      <c r="B228" s="10" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="229">
-      <c r="A229" s="9" t="s">
+      <c r="A229" s="10" t="s">
         <v>456</v>
       </c>
-      <c r="B229" s="9" t="s">
+      <c r="B229" s="10" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="230">
-      <c r="A230" s="9" t="s">
+      <c r="A230" s="10" t="s">
         <v>458</v>
       </c>
-      <c r="B230" s="9" t="s">
+      <c r="B230" s="10" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="231">
-      <c r="A231" s="9" t="s">
+      <c r="A231" s="10" t="s">
         <v>460</v>
       </c>
-      <c r="B231" s="9" t="s">
+      <c r="B231" s="10" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="232">
-      <c r="A232" s="9" t="s">
+      <c r="A232" s="10" t="s">
         <v>462</v>
       </c>
-      <c r="B232" s="9" t="s">
+      <c r="B232" s="10" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="233">
-      <c r="A233" s="9" t="s">
+      <c r="A233" s="10" t="s">
         <v>464</v>
       </c>
-      <c r="B233" s="9" t="s">
+      <c r="B233" s="10" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="234">
-      <c r="A234" s="9" t="s">
+      <c r="A234" s="10" t="s">
         <v>466</v>
       </c>
-      <c r="B234" s="9" t="s">
+      <c r="B234" s="10" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="235">
-      <c r="A235" s="9" t="s">
+      <c r="A235" s="10" t="s">
         <v>468</v>
       </c>
-      <c r="B235" s="9" t="s">
+      <c r="B235" s="10" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="236">
-      <c r="A236" s="9" t="s">
+      <c r="A236" s="10" t="s">
         <v>470</v>
       </c>
-      <c r="B236" s="9" t="s">
+      <c r="B236" s="10" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="237">
-      <c r="A237" s="9" t="s">
+      <c r="A237" s="10" t="s">
         <v>472</v>
       </c>
-      <c r="B237" s="9" t="s">
+      <c r="B237" s="10" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="238">
-      <c r="A238" s="9" t="s">
+      <c r="A238" s="10" t="s">
         <v>474</v>
       </c>
-      <c r="B238" s="9" t="s">
+      <c r="B238" s="10" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="239">
-      <c r="A239" s="9" t="s">
+      <c r="A239" s="10" t="s">
         <v>476</v>
       </c>
-      <c r="B239" s="9" t="s">
+      <c r="B239" s="10" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="240">
-      <c r="A240" s="9" t="s">
+      <c r="A240" s="10" t="s">
         <v>478</v>
       </c>
-      <c r="B240" s="9" t="s">
+      <c r="B240" s="10" t="s">
         <v>479</v>
       </c>
     </row>
     <row r="241">
-      <c r="A241" s="9" t="s">
+      <c r="A241" s="10" t="s">
         <v>480</v>
       </c>
-      <c r="B241" s="9" t="s">
+      <c r="B241" s="10" t="s">
         <v>481</v>
       </c>
     </row>
     <row r="242">
-      <c r="A242" s="9" t="s">
+      <c r="A242" s="10" t="s">
         <v>482</v>
       </c>
-      <c r="B242" s="9" t="s">
+      <c r="B242" s="10" t="s">
         <v>483</v>
       </c>
     </row>
     <row r="243">
-      <c r="A243" s="9" t="s">
+      <c r="A243" s="10" t="s">
         <v>484</v>
       </c>
-      <c r="B243" s="9" t="s">
+      <c r="B243" s="10" t="s">
         <v>485</v>
       </c>
     </row>
     <row r="244">
-      <c r="A244" s="9" t="s">
+      <c r="A244" s="10" t="s">
         <v>486</v>
       </c>
-      <c r="B244" s="9" t="s">
+      <c r="B244" s="10" t="s">
         <v>487</v>
       </c>
     </row>
     <row r="245">
-      <c r="A245" s="9" t="s">
+      <c r="A245" s="10" t="s">
         <v>488</v>
       </c>
-      <c r="B245" s="9" t="s">
+      <c r="B245" s="10" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="246">
-      <c r="A246" s="9" t="s">
+      <c r="A246" s="10" t="s">
         <v>490</v>
       </c>
-      <c r="B246" s="9" t="s">
-        <v>487</v>
+      <c r="B246" s="10" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="247">
-      <c r="A247" s="9" t="s">
-        <v>491</v>
-      </c>
-      <c r="B247" s="9" t="s">
+      <c r="A247" s="10" t="s">
         <v>492</v>
       </c>
+      <c r="B247" s="10" t="s">
+        <v>489</v>
+      </c>
     </row>
     <row r="248">
-      <c r="A248" s="9" t="s">
+      <c r="A248" s="10" t="s">
         <v>493</v>
       </c>
-      <c r="B248" s="9" t="s">
+      <c r="B248" s="10" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="249">
-      <c r="A249" s="9" t="s">
+      <c r="A249" s="10" t="s">
         <v>495</v>
       </c>
-      <c r="B249" s="9" t="s">
+      <c r="B249" s="10" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="250">
-      <c r="A250" s="9" t="s">
+      <c r="A250" s="10" t="s">
         <v>497</v>
       </c>
-      <c r="B250" s="9" t="s">
+      <c r="B250" s="10" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="251">
-      <c r="A251" s="9" t="s">
+      <c r="A251" s="10" t="s">
         <v>499</v>
       </c>
-      <c r="B251" s="9" t="s">
+      <c r="B251" s="10" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="252">
-      <c r="A252" s="9" t="s">
+      <c r="A252" s="10" t="s">
         <v>501</v>
       </c>
-      <c r="B252" s="9" t="s">
+      <c r="B252" s="10" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="253">
-      <c r="A253" s="9" t="s">
+      <c r="A253" s="10" t="s">
         <v>503</v>
       </c>
-      <c r="B253" s="9" t="s">
+      <c r="B253" s="10" t="s">
         <v>504</v>
       </c>
     </row>
     <row r="254">
-      <c r="A254" s="9" t="s">
+      <c r="A254" s="10" t="s">
         <v>505</v>
       </c>
-      <c r="B254" s="9" t="s">
+      <c r="B254" s="10" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="255">
-      <c r="A255" s="9" t="s">
+      <c r="A255" s="10" t="s">
         <v>507</v>
       </c>
-      <c r="B255" s="9" t="s">
+      <c r="B255" s="10" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="256">
-      <c r="A256" s="9" t="s">
+      <c r="A256" s="10" t="s">
         <v>509</v>
       </c>
-      <c r="B256" s="9" t="s">
+      <c r="B256" s="10" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="257">
-      <c r="A257" s="9" t="s">
+      <c r="A257" s="10" t="s">
         <v>511</v>
       </c>
-      <c r="B257" s="9" t="s">
+      <c r="B257" s="10" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="258">
-      <c r="A258" s="9" t="s">
+      <c r="A258" s="10" t="s">
         <v>513</v>
       </c>
-      <c r="B258" s="9" t="s">
+      <c r="B258" s="10" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="259">
-      <c r="A259" s="9" t="s">
+      <c r="A259" s="10" t="s">
         <v>515</v>
       </c>
-      <c r="B259" s="9" t="s">
+      <c r="B259" s="10" t="s">
         <v>516</v>
       </c>
     </row>
     <row r="260">
-      <c r="A260" s="9" t="s">
+      <c r="A260" s="10" t="s">
         <v>517</v>
       </c>
-      <c r="B260" s="9" t="s">
+      <c r="B260" s="10" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="261">
-      <c r="A261" s="9" t="s">
+      <c r="A261" s="10" t="s">
         <v>519</v>
       </c>
-      <c r="B261" s="9" t="s">
+      <c r="B261" s="10" t="s">
         <v>520</v>
       </c>
     </row>
     <row r="262">
-      <c r="A262" s="9" t="s">
+      <c r="A262" s="10" t="s">
         <v>521</v>
       </c>
-      <c r="B262" s="9" t="s">
+      <c r="B262" s="10" t="s">
         <v>522</v>
       </c>
     </row>
     <row r="263">
-      <c r="A263" s="9" t="s">
+      <c r="A263" s="10" t="s">
         <v>523</v>
       </c>
-      <c r="B263" s="9" t="s">
+      <c r="B263" s="10" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="264">
-      <c r="A264" s="9" t="s">
+      <c r="A264" s="10" t="s">
         <v>525</v>
       </c>
-      <c r="B264" s="9" t="s">
+      <c r="B264" s="10" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="265">
-      <c r="A265" s="9" t="s">
+      <c r="A265" s="10" t="s">
         <v>527</v>
       </c>
-      <c r="B265" s="9" t="s">
+      <c r="B265" s="10" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="266">
-      <c r="A266" s="9" t="s">
+      <c r="A266" s="10" t="s">
         <v>529</v>
       </c>
-      <c r="B266" s="9" t="s">
+      <c r="B266" s="10" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="267">
-      <c r="A267" s="9" t="s">
+      <c r="A267" s="10" t="s">
         <v>531</v>
       </c>
-      <c r="B267" s="9" t="s">
+      <c r="B267" s="10" t="s">
         <v>532</v>
       </c>
     </row>
     <row r="268">
-      <c r="A268" s="9" t="s">
+      <c r="A268" s="10" t="s">
         <v>533</v>
       </c>
-      <c r="B268" s="9" t="s">
+      <c r="B268" s="10" t="s">
         <v>534</v>
       </c>
     </row>
     <row r="269">
-      <c r="A269" s="9" t="s">
+      <c r="A269" s="10" t="s">
         <v>535</v>
       </c>
-      <c r="B269" s="9" t="s">
+      <c r="B269" s="10" t="s">
         <v>536</v>
       </c>
     </row>
     <row r="270">
-      <c r="A270" s="9" t="s">
+      <c r="A270" s="10" t="s">
         <v>537</v>
       </c>
-      <c r="B270" s="9" t="s">
+      <c r="B270" s="10" t="s">
         <v>538</v>
       </c>
     </row>
     <row r="271">
-      <c r="A271" s="9" t="s">
+      <c r="A271" s="10" t="s">
         <v>539</v>
       </c>
-      <c r="B271" s="9" t="s">
+      <c r="B271" s="10" t="s">
         <v>540</v>
       </c>
     </row>
     <row r="272">
-      <c r="A272" s="9" t="s">
+      <c r="A272" s="10" t="s">
         <v>541</v>
       </c>
-      <c r="B272" s="9" t="s">
+      <c r="B272" s="10" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="273">
-      <c r="A273" s="9" t="s">
+      <c r="A273" s="10" t="s">
         <v>543</v>
       </c>
-      <c r="B273" s="9" t="s">
+      <c r="B273" s="10" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="274">
-      <c r="A274" s="9" t="s">
+      <c r="A274" s="10" t="s">
         <v>545</v>
       </c>
-      <c r="B274" s="9" t="s">
+      <c r="B274" s="10" t="s">
         <v>546</v>
       </c>
     </row>
     <row r="275">
-      <c r="A275" s="9" t="s">
+      <c r="A275" s="10" t="s">
         <v>547</v>
       </c>
-      <c r="B275" s="9" t="s">
+      <c r="B275" s="10" t="s">
         <v>548</v>
       </c>
     </row>
     <row r="276">
-      <c r="A276" s="9" t="s">
+      <c r="A276" s="10" t="s">
         <v>549</v>
       </c>
-      <c r="B276" s="9" t="s">
+      <c r="B276" s="10" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="277">
-      <c r="A277" s="9" t="s">
+      <c r="A277" s="10" t="s">
         <v>551</v>
       </c>
-      <c r="B277" s="9" t="s">
+      <c r="B277" s="10" t="s">
         <v>552</v>
       </c>
     </row>
     <row r="278">
-      <c r="A278" s="9" t="s">
+      <c r="A278" s="10" t="s">
         <v>553</v>
       </c>
-      <c r="B278" s="9" t="s">
+      <c r="B278" s="10" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="279">
-      <c r="A279" s="9" t="s">
+      <c r="A279" s="10" t="s">
         <v>555</v>
       </c>
-      <c r="B279" s="9" t="s">
+      <c r="B279" s="10" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="280">
-      <c r="A280" s="9" t="s">
+      <c r="A280" s="10" t="s">
         <v>557</v>
       </c>
-      <c r="B280" s="9" t="s">
+      <c r="B280" s="10" t="s">
         <v>558</v>
       </c>
     </row>
     <row r="281">
-      <c r="A281" s="9" t="s">
+      <c r="A281" s="10" t="s">
         <v>559</v>
       </c>
-      <c r="B281" s="9" t="s">
+      <c r="B281" s="10" t="s">
         <v>560</v>
       </c>
     </row>
     <row r="282">
-      <c r="A282" s="9" t="s">
+      <c r="A282" s="10" t="s">
         <v>561</v>
       </c>
-      <c r="B282" s="9" t="s">
+      <c r="B282" s="10" t="s">
         <v>562</v>
       </c>
     </row>
     <row r="283">
-      <c r="A283" s="9" t="s">
+      <c r="A283" s="10" t="s">
         <v>563</v>
       </c>
-      <c r="B283" s="9" t="s">
+      <c r="B283" s="10" t="s">
         <v>564</v>
       </c>
     </row>
     <row r="284">
-      <c r="A284" s="9" t="s">
+      <c r="A284" s="10" t="s">
         <v>565</v>
       </c>
-      <c r="B284" s="9" t="s">
+      <c r="B284" s="10" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="285">
-      <c r="A285" s="9" t="s">
+      <c r="A285" s="10" t="s">
         <v>567</v>
       </c>
-      <c r="B285" s="9" t="s">
+      <c r="B285" s="10" t="s">
         <v>568</v>
       </c>
     </row>
     <row r="286">
-      <c r="A286" s="9" t="s">
+      <c r="A286" s="10" t="s">
         <v>569</v>
       </c>
-      <c r="B286" s="9" t="s">
+      <c r="B286" s="10" t="s">
         <v>570</v>
       </c>
     </row>
     <row r="287">
-      <c r="A287" s="9" t="s">
+      <c r="A287" s="10" t="s">
         <v>571</v>
       </c>
-      <c r="B287" s="9" t="s">
+      <c r="B287" s="10" t="s">
         <v>572</v>
       </c>
     </row>
     <row r="288">
-      <c r="A288" s="9" t="s">
+      <c r="A288" s="10" t="s">
         <v>573</v>
       </c>
-      <c r="B288" s="9" t="s">
+      <c r="B288" s="10" t="s">
         <v>574</v>
       </c>
     </row>
     <row r="289">
-      <c r="A289" s="9" t="s">
+      <c r="A289" s="10" t="s">
         <v>575</v>
       </c>
-      <c r="B289" s="9" t="s">
+      <c r="B289" s="10" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="290">
-      <c r="A290" s="9" t="s">
+      <c r="A290" s="10" t="s">
         <v>577</v>
       </c>
-      <c r="B290" s="9" t="s">
+      <c r="B290" s="10" t="s">
         <v>578</v>
       </c>
     </row>
     <row r="291">
-      <c r="A291" s="9" t="s">
+      <c r="A291" s="10" t="s">
         <v>579</v>
       </c>
-      <c r="B291" s="9" t="s">
+      <c r="B291" s="10" t="s">
         <v>580</v>
       </c>
     </row>
     <row r="292">
-      <c r="A292" s="9" t="s">
+      <c r="A292" s="10" t="s">
         <v>581</v>
       </c>
-      <c r="B292" s="9" t="s">
+      <c r="B292" s="10" t="s">
         <v>582</v>
       </c>
     </row>
     <row r="293">
-      <c r="A293" s="9" t="s">
+      <c r="A293" s="10" t="s">
         <v>583</v>
       </c>
-      <c r="B293" s="9" t="s">
+      <c r="B293" s="10" t="s">
         <v>584</v>
       </c>
     </row>
     <row r="294">
-      <c r="A294" s="9" t="s">
+      <c r="A294" s="10" t="s">
         <v>585</v>
       </c>
-      <c r="B294" s="9" t="s">
+      <c r="B294" s="10" t="s">
         <v>586</v>
       </c>
     </row>
     <row r="295">
-      <c r="A295" s="9" t="s">
+      <c r="A295" s="10" t="s">
         <v>587</v>
       </c>
-      <c r="B295" s="9" t="s">
+      <c r="B295" s="10" t="s">
         <v>588</v>
       </c>
     </row>
     <row r="296">
-      <c r="A296" s="9" t="s">
+      <c r="A296" s="10" t="s">
         <v>589</v>
       </c>
-      <c r="B296" s="9" t="s">
+      <c r="B296" s="10" t="s">
         <v>590</v>
       </c>
     </row>
     <row r="297">
-      <c r="A297" s="9" t="s">
+      <c r="A297" s="10" t="s">
         <v>591</v>
       </c>
-      <c r="B297" s="9" t="s">
+      <c r="B297" s="10" t="s">
         <v>592</v>
       </c>
     </row>
     <row r="298">
-      <c r="A298" s="9" t="s">
+      <c r="A298" s="10" t="s">
         <v>593</v>
       </c>
-      <c r="B298" s="9" t="s">
+      <c r="B298" s="10" t="s">
         <v>594</v>
       </c>
     </row>
     <row r="299">
-      <c r="A299" s="9" t="s">
+      <c r="A299" s="10" t="s">
         <v>595</v>
       </c>
-      <c r="B299" s="9" t="s">
+      <c r="B299" s="10" t="s">
         <v>596</v>
       </c>
     </row>
     <row r="300">
-      <c r="A300" s="9" t="s">
+      <c r="A300" s="10" t="s">
         <v>597</v>
       </c>
-      <c r="B300" s="9" t="s">
+      <c r="B300" s="10" t="s">
         <v>598</v>
       </c>
     </row>
     <row r="301">
-      <c r="A301" s="9" t="s">
+      <c r="A301" s="10" t="s">
         <v>599</v>
       </c>
-      <c r="B301" s="9" t="s">
+      <c r="B301" s="10" t="s">
         <v>600</v>
       </c>
     </row>
     <row r="302">
-      <c r="A302" s="9" t="s">
+      <c r="A302" s="10" t="s">
         <v>601</v>
       </c>
-      <c r="B302" s="9" t="s">
+      <c r="B302" s="10" t="s">
         <v>602</v>
       </c>
     </row>
     <row r="303">
-      <c r="A303" s="9" t="s">
+      <c r="A303" s="10" t="s">
         <v>603</v>
       </c>
-      <c r="B303" s="9" t="s">
+      <c r="B303" s="10" t="s">
         <v>604</v>
       </c>
     </row>
     <row r="304">
-      <c r="A304" s="9" t="s">
+      <c r="A304" s="10" t="s">
         <v>605</v>
       </c>
-      <c r="B304" s="9" t="s">
+      <c r="B304" s="10" t="s">
         <v>606</v>
       </c>
     </row>
     <row r="305">
-      <c r="A305" s="9" t="s">
+      <c r="A305" s="10" t="s">
         <v>607</v>
       </c>
-      <c r="B305" s="9" t="s">
+      <c r="B305" s="10" t="s">
         <v>608</v>
       </c>
     </row>
     <row r="306">
-      <c r="A306" s="9" t="s">
+      <c r="A306" s="10" t="s">
         <v>609</v>
       </c>
-      <c r="B306" s="9" t="s">
+      <c r="B306" s="10" t="s">
         <v>610</v>
       </c>
     </row>
     <row r="307">
-      <c r="A307" s="9" t="s">
+      <c r="A307" s="10" t="s">
         <v>611</v>
       </c>
-      <c r="B307" s="9" t="s">
+      <c r="B307" s="10" t="s">
         <v>612</v>
       </c>
     </row>
     <row r="308">
-      <c r="A308" s="9" t="s">
+      <c r="A308" s="10" t="s">
         <v>613</v>
       </c>
-      <c r="B308" s="9" t="s">
+      <c r="B308" s="10" t="s">
         <v>614</v>
       </c>
     </row>
     <row r="309">
-      <c r="A309" s="9" t="s">
+      <c r="A309" s="10" t="s">
         <v>615</v>
       </c>
-      <c r="B309" s="9" t="s">
+      <c r="B309" s="10" t="s">
         <v>616</v>
       </c>
     </row>
     <row r="310">
-      <c r="A310" s="9" t="s">
+      <c r="A310" s="10" t="s">
         <v>617</v>
       </c>
-      <c r="B310" s="9" t="s">
+      <c r="B310" s="10" t="s">
         <v>618</v>
       </c>
     </row>
     <row r="311">
-      <c r="A311" s="9" t="s">
+      <c r="A311" s="10" t="s">
         <v>619</v>
       </c>
-      <c r="B311" s="9" t="s">
+      <c r="B311" s="10" t="s">
         <v>620</v>
       </c>
     </row>
     <row r="312">
-      <c r="A312" s="9" t="s">
+      <c r="A312" s="10" t="s">
         <v>621</v>
       </c>
-      <c r="B312" s="9" t="s">
+      <c r="B312" s="10" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="313">
-      <c r="A313" s="9" t="s">
+      <c r="A313" s="10" t="s">
         <v>623</v>
       </c>
-      <c r="B313" s="9" t="s">
+      <c r="B313" s="10" t="s">
         <v>624</v>
       </c>
     </row>
     <row r="314">
-      <c r="A314" s="9" t="s">
+      <c r="A314" s="10" t="s">
         <v>625</v>
       </c>
-      <c r="B314" s="9" t="s">
+      <c r="B314" s="10" t="s">
         <v>626</v>
       </c>
     </row>
     <row r="315">
-      <c r="A315" s="9" t="s">
+      <c r="A315" s="10" t="s">
         <v>627</v>
       </c>
-      <c r="B315" s="9" t="s">
+      <c r="B315" s="10" t="s">
         <v>628</v>
       </c>
     </row>
     <row r="316">
-      <c r="A316" s="9" t="s">
+      <c r="A316" s="10" t="s">
         <v>629</v>
       </c>
-      <c r="B316" s="9" t="s">
+      <c r="B316" s="10" t="s">
         <v>630</v>
       </c>
     </row>
     <row r="317">
-      <c r="A317" s="9" t="s">
+      <c r="A317" s="10" t="s">
         <v>631</v>
       </c>
-      <c r="B317" s="9" t="s">
+      <c r="B317" s="10" t="s">
         <v>632</v>
       </c>
     </row>
     <row r="318">
-      <c r="A318" s="9" t="s">
+      <c r="A318" s="10" t="s">
         <v>633</v>
       </c>
-      <c r="B318" s="9" t="s">
+      <c r="B318" s="10" t="s">
         <v>634</v>
       </c>
     </row>
     <row r="319">
-      <c r="A319" s="9" t="s">
+      <c r="A319" s="10" t="s">
         <v>635</v>
       </c>
-      <c r="B319" s="9" t="s">
+      <c r="B319" s="10" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="320">
-      <c r="A320" s="9" t="s">
+      <c r="A320" s="10" t="s">
         <v>637</v>
       </c>
-      <c r="B320" s="9" t="s">
+      <c r="B320" s="10" t="s">
         <v>638</v>
       </c>
     </row>
     <row r="321">
-      <c r="A321" s="9" t="s">
+      <c r="A321" s="10" t="s">
         <v>639</v>
       </c>
-      <c r="B321" s="9" t="s">
+      <c r="B321" s="10" t="s">
         <v>640</v>
       </c>
     </row>
     <row r="322">
-      <c r="A322" s="9" t="s">
+      <c r="A322" s="10" t="s">
         <v>641</v>
       </c>
-      <c r="B322" s="9" t="s">
+      <c r="B322" s="10" t="s">
         <v>642</v>
       </c>
     </row>
     <row r="323">
-      <c r="A323" s="9" t="s">
+      <c r="A323" s="10" t="s">
         <v>643</v>
       </c>
-      <c r="B323" s="9" t="s">
+      <c r="B323" s="10" t="s">
         <v>644</v>
       </c>
     </row>
     <row r="324">
-      <c r="A324" s="9" t="s">
+      <c r="A324" s="10" t="s">
         <v>645</v>
       </c>
-      <c r="B324" s="9" t="s">
+      <c r="B324" s="10" t="s">
         <v>646</v>
       </c>
     </row>
     <row r="325">
-      <c r="A325" s="9" t="s">
+      <c r="A325" s="10" t="s">
         <v>647</v>
       </c>
-      <c r="B325" s="9" t="s">
+      <c r="B325" s="10" t="s">
         <v>648</v>
       </c>
     </row>
     <row r="326">
-      <c r="A326" s="9" t="s">
+      <c r="A326" s="10" t="s">
         <v>649</v>
       </c>
-      <c r="B326" s="9" t="s">
+      <c r="B326" s="10" t="s">
         <v>650</v>
       </c>
     </row>
     <row r="327">
-      <c r="A327" s="9" t="s">
+      <c r="A327" s="10" t="s">
         <v>651</v>
       </c>
-      <c r="B327" s="9" t="s">
+      <c r="B327" s="10" t="s">
         <v>652</v>
       </c>
     </row>
     <row r="328">
-      <c r="A328" s="9" t="s">
+      <c r="A328" s="10" t="s">
         <v>653</v>
       </c>
-      <c r="B328" s="9" t="s">
+      <c r="B328" s="10" t="s">
         <v>654</v>
       </c>
     </row>
     <row r="329">
-      <c r="A329" s="9" t="s">
+      <c r="A329" s="10" t="s">
         <v>655</v>
       </c>
-      <c r="B329" s="9" t="s">
+      <c r="B329" s="10" t="s">
         <v>656</v>
       </c>
     </row>
     <row r="330">
-      <c r="A330" s="9" t="s">
+      <c r="A330" s="10" t="s">
         <v>657</v>
       </c>
-      <c r="B330" s="9" t="s">
+      <c r="B330" s="10" t="s">
         <v>658</v>
       </c>
     </row>
     <row r="331">
-      <c r="A331" s="9" t="s">
+      <c r="A331" s="10" t="s">
         <v>659</v>
       </c>
-      <c r="B331" s="9" t="s">
+      <c r="B331" s="10" t="s">
         <v>660</v>
       </c>
     </row>
     <row r="332">
-      <c r="A332" s="9" t="s">
+      <c r="A332" s="10" t="s">
         <v>661</v>
       </c>
-      <c r="B332" s="9" t="s">
+      <c r="B332" s="10" t="s">
         <v>662</v>
       </c>
     </row>
     <row r="333">
-      <c r="A333" s="9" t="s">
+      <c r="A333" s="10" t="s">
         <v>663</v>
       </c>
-      <c r="B333" s="9" t="s">
+      <c r="B333" s="10" t="s">
         <v>664</v>
       </c>
     </row>
     <row r="334">
-      <c r="A334" s="9" t="s">
+      <c r="A334" s="10" t="s">
         <v>665</v>
       </c>
-      <c r="B334" s="9" t="s">
+      <c r="B334" s="10" t="s">
         <v>666</v>
       </c>
     </row>
     <row r="335">
-      <c r="A335" s="9" t="s">
+      <c r="A335" s="10" t="s">
         <v>667</v>
       </c>
-      <c r="B335" s="9" t="s">
+      <c r="B335" s="10" t="s">
         <v>668</v>
       </c>
     </row>
     <row r="336">
-      <c r="A336" s="9" t="s">
+      <c r="A336" s="10" t="s">
         <v>669</v>
       </c>
-      <c r="B336" s="9" t="s">
+      <c r="B336" s="10" t="s">
         <v>670</v>
       </c>
     </row>
@@ -7620,7 +7628,7 @@
       <c r="A337" s="10" t="s">
         <v>671</v>
       </c>
-      <c r="B337" s="9" t="s">
+      <c r="B337" s="10" t="s">
         <v>672</v>
       </c>
     </row>
@@ -7628,1500 +7636,1500 @@
       <c r="A338" s="9" t="s">
         <v>673</v>
       </c>
-      <c r="B338" s="9" t="s">
+      <c r="B338" s="10" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="339">
-      <c r="A339" s="9" t="s">
+      <c r="A339" s="10" t="s">
         <v>675</v>
       </c>
-      <c r="B339" s="9" t="s">
+      <c r="B339" s="10" t="s">
         <v>676</v>
       </c>
     </row>
     <row r="340">
-      <c r="A340" s="9" t="s">
+      <c r="A340" s="10" t="s">
         <v>677</v>
       </c>
-      <c r="B340" s="9" t="s">
+      <c r="B340" s="10" t="s">
         <v>678</v>
       </c>
     </row>
     <row r="341">
-      <c r="A341" s="9" t="s">
+      <c r="A341" s="10" t="s">
         <v>679</v>
       </c>
-      <c r="B341" s="9" t="s">
+      <c r="B341" s="10" t="s">
         <v>680</v>
       </c>
     </row>
     <row r="342">
-      <c r="A342" s="9" t="s">
+      <c r="A342" s="10" t="s">
         <v>681</v>
       </c>
-      <c r="B342" s="9" t="s">
+      <c r="B342" s="10" t="s">
         <v>682</v>
       </c>
     </row>
     <row r="343">
-      <c r="A343" s="9" t="s">
+      <c r="A343" s="10" t="s">
         <v>683</v>
       </c>
-      <c r="B343" s="9" t="s">
+      <c r="B343" s="10" t="s">
         <v>684</v>
       </c>
     </row>
     <row r="344">
-      <c r="A344" s="9" t="s">
+      <c r="A344" s="10" t="s">
         <v>685</v>
       </c>
-      <c r="B344" s="9" t="s">
+      <c r="B344" s="10" t="s">
         <v>686</v>
       </c>
     </row>
     <row r="345">
-      <c r="A345" s="9" t="s">
+      <c r="A345" s="10" t="s">
         <v>687</v>
       </c>
-      <c r="B345" s="9" t="s">
+      <c r="B345" s="10" t="s">
         <v>688</v>
       </c>
     </row>
     <row r="346">
-      <c r="A346" s="9" t="s">
+      <c r="A346" s="10" t="s">
         <v>689</v>
       </c>
-      <c r="B346" s="9" t="s">
+      <c r="B346" s="10" t="s">
         <v>690</v>
       </c>
     </row>
     <row r="347">
-      <c r="A347" s="9" t="s">
+      <c r="A347" s="10" t="s">
         <v>691</v>
       </c>
-      <c r="B347" s="9" t="s">
+      <c r="B347" s="10" t="s">
         <v>692</v>
       </c>
     </row>
     <row r="348">
-      <c r="A348" s="9" t="s">
+      <c r="A348" s="10" t="s">
         <v>693</v>
       </c>
-      <c r="B348" s="9" t="s">
+      <c r="B348" s="10" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="349">
-      <c r="A349" s="9" t="s">
+      <c r="A349" s="10" t="s">
         <v>695</v>
       </c>
-      <c r="B349" s="9" t="s">
+      <c r="B349" s="10" t="s">
         <v>696</v>
       </c>
     </row>
     <row r="350">
-      <c r="A350" s="9" t="s">
+      <c r="A350" s="10" t="s">
         <v>697</v>
       </c>
-      <c r="B350" s="9" t="s">
+      <c r="B350" s="10" t="s">
         <v>698</v>
       </c>
     </row>
     <row r="351">
-      <c r="A351" s="9" t="s">
+      <c r="A351" s="10" t="s">
         <v>699</v>
       </c>
-      <c r="B351" s="9" t="s">
+      <c r="B351" s="10" t="s">
         <v>700</v>
       </c>
     </row>
     <row r="352">
-      <c r="A352" s="9" t="s">
+      <c r="A352" s="10" t="s">
         <v>701</v>
       </c>
-      <c r="B352" s="9" t="s">
+      <c r="B352" s="10" t="s">
         <v>702</v>
       </c>
     </row>
     <row r="353">
-      <c r="A353" s="9" t="s">
+      <c r="A353" s="10" t="s">
         <v>703</v>
       </c>
-      <c r="B353" s="9" t="s">
+      <c r="B353" s="10" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="354">
-      <c r="A354" s="9" t="s">
+      <c r="A354" s="10" t="s">
         <v>705</v>
       </c>
-      <c r="B354" s="9" t="s">
+      <c r="B354" s="10" t="s">
         <v>706</v>
       </c>
     </row>
     <row r="355">
-      <c r="A355" s="9" t="s">
+      <c r="A355" s="10" t="s">
         <v>707</v>
       </c>
-      <c r="B355" s="9" t="s">
+      <c r="B355" s="10" t="s">
         <v>708</v>
       </c>
     </row>
     <row r="356">
-      <c r="A356" s="9" t="s">
+      <c r="A356" s="10" t="s">
         <v>709</v>
       </c>
-      <c r="B356" s="9" t="s">
+      <c r="B356" s="10" t="s">
         <v>710</v>
       </c>
     </row>
     <row r="357">
-      <c r="A357" s="9" t="s">
+      <c r="A357" s="10" t="s">
         <v>711</v>
       </c>
-      <c r="B357" s="9" t="s">
+      <c r="B357" s="10" t="s">
         <v>712</v>
       </c>
     </row>
     <row r="358">
-      <c r="A358" s="9" t="s">
+      <c r="A358" s="10" t="s">
         <v>713</v>
       </c>
-      <c r="B358" s="9" t="s">
+      <c r="B358" s="10" t="s">
         <v>714</v>
       </c>
     </row>
     <row r="359">
-      <c r="A359" s="9" t="s">
+      <c r="A359" s="10" t="s">
         <v>715</v>
       </c>
-      <c r="B359" s="9" t="s">
+      <c r="B359" s="10" t="s">
         <v>716</v>
       </c>
     </row>
     <row r="360">
-      <c r="A360" s="9" t="s">
+      <c r="A360" s="10" t="s">
         <v>717</v>
       </c>
-      <c r="B360" s="9" t="s">
+      <c r="B360" s="10" t="s">
         <v>718</v>
       </c>
     </row>
     <row r="361">
-      <c r="A361" s="9" t="s">
+      <c r="A361" s="10" t="s">
         <v>719</v>
       </c>
-      <c r="B361" s="9" t="s">
+      <c r="B361" s="10" t="s">
         <v>720</v>
       </c>
     </row>
     <row r="362">
-      <c r="A362" s="9" t="s">
+      <c r="A362" s="10" t="s">
         <v>721</v>
       </c>
-      <c r="B362" s="9" t="s">
+      <c r="B362" s="10" t="s">
         <v>722</v>
       </c>
     </row>
     <row r="363">
-      <c r="A363" s="9" t="s">
+      <c r="A363" s="10" t="s">
         <v>723</v>
       </c>
-      <c r="B363" s="9" t="s">
+      <c r="B363" s="10" t="s">
         <v>724</v>
       </c>
     </row>
     <row r="364">
-      <c r="A364" s="9" t="s">
+      <c r="A364" s="10" t="s">
         <v>725</v>
       </c>
-      <c r="B364" s="9" t="s">
+      <c r="B364" s="10" t="s">
         <v>726</v>
       </c>
     </row>
     <row r="365">
-      <c r="A365" s="9" t="s">
+      <c r="A365" s="10" t="s">
         <v>727</v>
       </c>
-      <c r="B365" s="9" t="s">
+      <c r="B365" s="10" t="s">
         <v>728</v>
       </c>
     </row>
     <row r="366">
-      <c r="A366" s="9" t="s">
+      <c r="A366" s="10" t="s">
         <v>729</v>
       </c>
-      <c r="B366" s="9" t="s">
+      <c r="B366" s="10" t="s">
         <v>730</v>
       </c>
     </row>
     <row r="367">
-      <c r="A367" s="9" t="s">
+      <c r="A367" s="10" t="s">
         <v>731</v>
       </c>
-      <c r="B367" s="9" t="s">
+      <c r="B367" s="10" t="s">
         <v>732</v>
       </c>
     </row>
     <row r="368">
-      <c r="A368" s="9" t="s">
+      <c r="A368" s="10" t="s">
         <v>733</v>
       </c>
-      <c r="B368" s="9" t="s">
+      <c r="B368" s="10" t="s">
         <v>734</v>
       </c>
     </row>
     <row r="369">
-      <c r="A369" s="9" t="s">
+      <c r="A369" s="10" t="s">
         <v>735</v>
       </c>
-      <c r="B369" s="9" t="s">
+      <c r="B369" s="10" t="s">
         <v>736</v>
       </c>
     </row>
     <row r="370">
-      <c r="A370" s="9" t="s">
+      <c r="A370" s="10" t="s">
         <v>737</v>
       </c>
-      <c r="B370" s="9" t="s">
+      <c r="B370" s="10" t="s">
         <v>738</v>
       </c>
     </row>
     <row r="371">
-      <c r="A371" s="9" t="s">
+      <c r="A371" s="10" t="s">
         <v>739</v>
       </c>
-      <c r="B371" s="9" t="s">
+      <c r="B371" s="10" t="s">
         <v>740</v>
       </c>
     </row>
     <row r="372">
-      <c r="A372" s="9" t="s">
+      <c r="A372" s="10" t="s">
         <v>741</v>
       </c>
-      <c r="B372" s="9" t="s">
+      <c r="B372" s="10" t="s">
         <v>742</v>
       </c>
     </row>
     <row r="373">
-      <c r="A373" s="9" t="s">
+      <c r="A373" s="10" t="s">
         <v>743</v>
       </c>
-      <c r="B373" s="9" t="s">
+      <c r="B373" s="10" t="s">
         <v>744</v>
       </c>
     </row>
     <row r="374">
-      <c r="A374" s="9" t="s">
+      <c r="A374" s="10" t="s">
         <v>745</v>
       </c>
-      <c r="B374" s="9" t="s">
+      <c r="B374" s="10" t="s">
         <v>746</v>
       </c>
     </row>
     <row r="375">
-      <c r="A375" s="9" t="s">
+      <c r="A375" s="10" t="s">
         <v>747</v>
       </c>
-      <c r="B375" s="9" t="s">
+      <c r="B375" s="10" t="s">
         <v>748</v>
       </c>
     </row>
     <row r="376">
-      <c r="A376" s="9" t="s">
+      <c r="A376" s="10" t="s">
         <v>749</v>
       </c>
-      <c r="B376" s="9" t="s">
+      <c r="B376" s="10" t="s">
         <v>750</v>
       </c>
     </row>
     <row r="377">
-      <c r="A377" s="9" t="s">
+      <c r="A377" s="10" t="s">
         <v>751</v>
       </c>
-      <c r="B377" s="9" t="s">
+      <c r="B377" s="10" t="s">
         <v>752</v>
       </c>
     </row>
     <row r="378">
-      <c r="A378" s="9" t="s">
+      <c r="A378" s="10" t="s">
         <v>753</v>
       </c>
-      <c r="B378" s="9" t="s">
+      <c r="B378" s="10" t="s">
         <v>754</v>
       </c>
     </row>
     <row r="379">
-      <c r="A379" s="9" t="s">
+      <c r="A379" s="10" t="s">
         <v>755</v>
       </c>
-      <c r="B379" s="9" t="s">
+      <c r="B379" s="10" t="s">
         <v>756</v>
       </c>
     </row>
     <row r="380">
-      <c r="A380" s="9" t="s">
+      <c r="A380" s="10" t="s">
         <v>757</v>
       </c>
-      <c r="B380" s="9" t="s">
+      <c r="B380" s="10" t="s">
         <v>758</v>
       </c>
     </row>
     <row r="381">
-      <c r="A381" s="9" t="s">
+      <c r="A381" s="10" t="s">
         <v>759</v>
       </c>
-      <c r="B381" s="9" t="s">
+      <c r="B381" s="10" t="s">
         <v>760</v>
       </c>
     </row>
     <row r="382">
-      <c r="A382" s="9" t="s">
+      <c r="A382" s="10" t="s">
         <v>761</v>
       </c>
-      <c r="B382" s="9" t="s">
+      <c r="B382" s="10" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="383">
-      <c r="A383" s="9" t="s">
+      <c r="A383" s="10" t="s">
         <v>763</v>
       </c>
-      <c r="B383" s="9" t="s">
+      <c r="B383" s="10" t="s">
         <v>764</v>
       </c>
     </row>
     <row r="384">
-      <c r="A384" s="9" t="s">
+      <c r="A384" s="10" t="s">
         <v>765</v>
       </c>
-      <c r="B384" s="9" t="s">
+      <c r="B384" s="10" t="s">
         <v>766</v>
       </c>
     </row>
     <row r="385">
-      <c r="A385" s="9" t="s">
+      <c r="A385" s="10" t="s">
         <v>767</v>
       </c>
-      <c r="B385" s="9" t="s">
+      <c r="B385" s="10" t="s">
         <v>768</v>
       </c>
     </row>
     <row r="386">
-      <c r="A386" s="9" t="s">
+      <c r="A386" s="10" t="s">
         <v>769</v>
       </c>
-      <c r="B386" s="9" t="s">
+      <c r="B386" s="10" t="s">
         <v>770</v>
       </c>
     </row>
     <row r="387">
-      <c r="A387" s="9" t="s">
+      <c r="A387" s="10" t="s">
         <v>771</v>
       </c>
-      <c r="B387" s="9" t="s">
+      <c r="B387" s="10" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="388">
-      <c r="A388" s="9" t="s">
+      <c r="A388" s="10" t="s">
         <v>773</v>
       </c>
-      <c r="B388" s="9" t="s">
+      <c r="B388" s="10" t="s">
         <v>774</v>
       </c>
     </row>
     <row r="389">
-      <c r="A389" s="9" t="s">
+      <c r="A389" s="10" t="s">
         <v>775</v>
       </c>
-      <c r="B389" s="9" t="s">
+      <c r="B389" s="10" t="s">
         <v>776</v>
       </c>
     </row>
     <row r="390">
-      <c r="A390" s="9" t="s">
+      <c r="A390" s="10" t="s">
         <v>777</v>
       </c>
-      <c r="B390" s="9" t="s">
+      <c r="B390" s="10" t="s">
         <v>778</v>
       </c>
     </row>
     <row r="391">
-      <c r="A391" s="9" t="s">
+      <c r="A391" s="10" t="s">
         <v>779</v>
       </c>
-      <c r="B391" s="9" t="s">
+      <c r="B391" s="10" t="s">
         <v>780</v>
       </c>
     </row>
     <row r="392">
-      <c r="A392" s="9" t="s">
+      <c r="A392" s="10" t="s">
         <v>781</v>
       </c>
-      <c r="B392" s="9" t="s">
+      <c r="B392" s="10" t="s">
         <v>782</v>
       </c>
     </row>
     <row r="393">
-      <c r="A393" s="9" t="s">
+      <c r="A393" s="10" t="s">
         <v>783</v>
       </c>
-      <c r="B393" s="9" t="s">
+      <c r="B393" s="10" t="s">
         <v>784</v>
       </c>
     </row>
     <row r="394">
-      <c r="A394" s="9" t="s">
+      <c r="A394" s="10" t="s">
         <v>785</v>
       </c>
-      <c r="B394" s="9" t="s">
+      <c r="B394" s="10" t="s">
         <v>786</v>
       </c>
     </row>
     <row r="395">
-      <c r="A395" s="9" t="s">
+      <c r="A395" s="10" t="s">
         <v>787</v>
       </c>
-      <c r="B395" s="9" t="s">
+      <c r="B395" s="10" t="s">
         <v>788</v>
       </c>
     </row>
     <row r="396">
-      <c r="A396" s="9" t="s">
+      <c r="A396" s="10" t="s">
         <v>789</v>
       </c>
-      <c r="B396" s="9" t="s">
+      <c r="B396" s="10" t="s">
         <v>790</v>
       </c>
     </row>
     <row r="397">
-      <c r="A397" s="9" t="s">
+      <c r="A397" s="10" t="s">
         <v>791</v>
       </c>
-      <c r="B397" s="9" t="s">
+      <c r="B397" s="10" t="s">
         <v>792</v>
       </c>
     </row>
     <row r="398">
-      <c r="A398" s="9" t="s">
+      <c r="A398" s="10" t="s">
         <v>793</v>
       </c>
-      <c r="B398" s="9" t="s">
+      <c r="B398" s="10" t="s">
         <v>794</v>
       </c>
     </row>
     <row r="399">
-      <c r="A399" s="9" t="s">
+      <c r="A399" s="10" t="s">
         <v>795</v>
       </c>
-      <c r="B399" s="9" t="s">
+      <c r="B399" s="10" t="s">
         <v>796</v>
       </c>
     </row>
     <row r="400">
-      <c r="A400" s="9" t="s">
+      <c r="A400" s="10" t="s">
         <v>797</v>
       </c>
-      <c r="B400" s="9" t="s">
+      <c r="B400" s="10" t="s">
         <v>798</v>
       </c>
     </row>
     <row r="401">
-      <c r="A401" s="9" t="s">
+      <c r="A401" s="10" t="s">
         <v>799</v>
       </c>
-      <c r="B401" s="9" t="s">
+      <c r="B401" s="10" t="s">
         <v>800</v>
       </c>
     </row>
     <row r="402">
-      <c r="A402" s="9" t="s">
+      <c r="A402" s="10" t="s">
         <v>801</v>
       </c>
-      <c r="B402" s="9" t="s">
+      <c r="B402" s="10" t="s">
         <v>802</v>
       </c>
     </row>
     <row r="403">
-      <c r="A403" s="9" t="s">
+      <c r="A403" s="10" t="s">
         <v>803</v>
       </c>
-      <c r="B403" s="9" t="s">
+      <c r="B403" s="10" t="s">
         <v>804</v>
       </c>
     </row>
     <row r="404">
-      <c r="A404" s="9" t="s">
+      <c r="A404" s="10" t="s">
         <v>805</v>
       </c>
-      <c r="B404" s="9" t="s">
+      <c r="B404" s="10" t="s">
         <v>806</v>
       </c>
     </row>
     <row r="405">
-      <c r="A405" s="9" t="s">
+      <c r="A405" s="10" t="s">
         <v>807</v>
       </c>
-      <c r="B405" s="9" t="s">
+      <c r="B405" s="10" t="s">
         <v>808</v>
       </c>
     </row>
     <row r="406">
-      <c r="A406" s="9" t="s">
+      <c r="A406" s="10" t="s">
         <v>809</v>
       </c>
-      <c r="B406" s="9" t="s">
+      <c r="B406" s="10" t="s">
         <v>810</v>
       </c>
     </row>
     <row r="407">
-      <c r="A407" s="9" t="s">
+      <c r="A407" s="10" t="s">
         <v>811</v>
       </c>
-      <c r="B407" s="9" t="s">
+      <c r="B407" s="10" t="s">
         <v>812</v>
       </c>
     </row>
     <row r="408">
-      <c r="A408" s="9" t="s">
+      <c r="A408" s="10" t="s">
         <v>813</v>
       </c>
-      <c r="B408" s="9" t="s">
+      <c r="B408" s="10" t="s">
         <v>814</v>
       </c>
     </row>
     <row r="409">
-      <c r="A409" s="9" t="s">
+      <c r="A409" s="10" t="s">
         <v>815</v>
       </c>
-      <c r="B409" s="9" t="s">
+      <c r="B409" s="10" t="s">
         <v>816</v>
       </c>
     </row>
     <row r="410">
-      <c r="A410" s="9" t="s">
+      <c r="A410" s="10" t="s">
         <v>817</v>
       </c>
-      <c r="B410" s="9" t="s">
+      <c r="B410" s="10" t="s">
         <v>818</v>
       </c>
     </row>
     <row r="411">
-      <c r="A411" s="9" t="s">
+      <c r="A411" s="10" t="s">
         <v>819</v>
       </c>
-      <c r="B411" s="9" t="s">
+      <c r="B411" s="10" t="s">
         <v>820</v>
       </c>
     </row>
     <row r="412">
-      <c r="A412" s="9" t="s">
+      <c r="A412" s="10" t="s">
         <v>821</v>
       </c>
-      <c r="B412" s="9" t="s">
+      <c r="B412" s="10" t="s">
         <v>822</v>
       </c>
     </row>
     <row r="413">
-      <c r="A413" s="9" t="s">
+      <c r="A413" s="10" t="s">
         <v>823</v>
       </c>
-      <c r="B413" s="9" t="s">
+      <c r="B413" s="10" t="s">
         <v>824</v>
       </c>
     </row>
     <row r="414">
-      <c r="A414" s="9" t="s">
+      <c r="A414" s="10" t="s">
         <v>825</v>
       </c>
-      <c r="B414" s="9" t="s">
+      <c r="B414" s="10" t="s">
         <v>826</v>
       </c>
     </row>
     <row r="415">
-      <c r="A415" s="9" t="s">
+      <c r="A415" s="10" t="s">
         <v>827</v>
       </c>
-      <c r="B415" s="9" t="s">
+      <c r="B415" s="10" t="s">
         <v>828</v>
       </c>
     </row>
     <row r="416">
-      <c r="A416" s="9" t="s">
+      <c r="A416" s="10" t="s">
         <v>829</v>
       </c>
-      <c r="B416" s="9" t="s">
+      <c r="B416" s="10" t="s">
         <v>830</v>
       </c>
     </row>
     <row r="417">
-      <c r="A417" s="9" t="s">
+      <c r="A417" s="10" t="s">
         <v>831</v>
       </c>
-      <c r="B417" s="9" t="s">
+      <c r="B417" s="10" t="s">
         <v>832</v>
       </c>
     </row>
     <row r="418">
-      <c r="A418" s="9" t="s">
+      <c r="A418" s="10" t="s">
         <v>833</v>
       </c>
-      <c r="B418" s="9" t="s">
+      <c r="B418" s="10" t="s">
         <v>834</v>
       </c>
     </row>
     <row r="419">
-      <c r="A419" s="9" t="s">
+      <c r="A419" s="10" t="s">
         <v>835</v>
       </c>
-      <c r="B419" s="9" t="s">
+      <c r="B419" s="10" t="s">
         <v>836</v>
       </c>
     </row>
     <row r="420">
-      <c r="A420" s="9" t="s">
+      <c r="A420" s="10" t="s">
         <v>837</v>
       </c>
-      <c r="B420" s="9" t="s">
+      <c r="B420" s="10" t="s">
         <v>838</v>
       </c>
     </row>
     <row r="421">
-      <c r="A421" s="9" t="s">
+      <c r="A421" s="10" t="s">
         <v>839</v>
       </c>
-      <c r="B421" s="9" t="s">
+      <c r="B421" s="10" t="s">
         <v>840</v>
       </c>
     </row>
     <row r="422">
-      <c r="A422" s="9" t="s">
+      <c r="A422" s="10" t="s">
         <v>841</v>
       </c>
-      <c r="B422" s="9" t="s">
+      <c r="B422" s="10" t="s">
         <v>842</v>
       </c>
     </row>
     <row r="423">
-      <c r="A423" s="9" t="s">
+      <c r="A423" s="10" t="s">
         <v>843</v>
       </c>
-      <c r="B423" s="9" t="s">
+      <c r="B423" s="10" t="s">
         <v>844</v>
       </c>
     </row>
     <row r="424">
-      <c r="A424" s="9" t="s">
+      <c r="A424" s="10" t="s">
         <v>845</v>
       </c>
-      <c r="B424" s="9" t="s">
+      <c r="B424" s="10" t="s">
         <v>846</v>
       </c>
     </row>
     <row r="425">
-      <c r="A425" s="9" t="s">
+      <c r="A425" s="10" t="s">
         <v>847</v>
       </c>
-      <c r="B425" s="9" t="s">
+      <c r="B425" s="10" t="s">
         <v>848</v>
       </c>
     </row>
     <row r="426">
-      <c r="A426" s="9" t="s">
+      <c r="A426" s="10" t="s">
         <v>849</v>
       </c>
-      <c r="B426" s="9" t="s">
+      <c r="B426" s="10" t="s">
         <v>850</v>
       </c>
     </row>
     <row r="427">
-      <c r="A427" s="9" t="s">
+      <c r="A427" s="10" t="s">
         <v>851</v>
       </c>
-      <c r="B427" s="9" t="s">
+      <c r="B427" s="10" t="s">
         <v>852</v>
       </c>
     </row>
     <row r="428">
-      <c r="A428" s="9" t="s">
+      <c r="A428" s="10" t="s">
         <v>853</v>
       </c>
-      <c r="B428" s="9" t="s">
+      <c r="B428" s="10" t="s">
         <v>854</v>
       </c>
     </row>
     <row r="429">
-      <c r="A429" s="9" t="s">
+      <c r="A429" s="10" t="s">
         <v>855</v>
       </c>
-      <c r="B429" s="9" t="s">
+      <c r="B429" s="10" t="s">
         <v>856</v>
       </c>
     </row>
     <row r="430">
-      <c r="A430" s="9" t="s">
+      <c r="A430" s="10" t="s">
         <v>857</v>
       </c>
-      <c r="B430" s="9" t="s">
+      <c r="B430" s="10" t="s">
         <v>858</v>
       </c>
     </row>
     <row r="431">
-      <c r="A431" s="9" t="s">
+      <c r="A431" s="10" t="s">
         <v>859</v>
       </c>
-      <c r="B431" s="9" t="s">
+      <c r="B431" s="10" t="s">
         <v>860</v>
       </c>
     </row>
     <row r="432">
-      <c r="A432" s="9" t="s">
+      <c r="A432" s="10" t="s">
         <v>861</v>
       </c>
-      <c r="B432" s="9" t="s">
+      <c r="B432" s="10" t="s">
         <v>862</v>
       </c>
     </row>
     <row r="433">
-      <c r="A433" s="9" t="s">
+      <c r="A433" s="10" t="s">
         <v>863</v>
       </c>
-      <c r="B433" s="9" t="s">
+      <c r="B433" s="10" t="s">
         <v>864</v>
       </c>
     </row>
     <row r="434">
-      <c r="A434" s="9" t="s">
+      <c r="A434" s="10" t="s">
         <v>865</v>
       </c>
-      <c r="B434" s="9" t="s">
+      <c r="B434" s="10" t="s">
         <v>866</v>
       </c>
     </row>
     <row r="435">
-      <c r="A435" s="9" t="s">
+      <c r="A435" s="10" t="s">
         <v>867</v>
       </c>
-      <c r="B435" s="9" t="s">
+      <c r="B435" s="10" t="s">
         <v>868</v>
       </c>
     </row>
     <row r="436">
-      <c r="A436" s="9" t="s">
+      <c r="A436" s="10" t="s">
         <v>869</v>
       </c>
-      <c r="B436" s="9" t="s">
+      <c r="B436" s="10" t="s">
         <v>870</v>
       </c>
     </row>
     <row r="437">
-      <c r="A437" s="9" t="s">
+      <c r="A437" s="10" t="s">
         <v>871</v>
       </c>
-      <c r="B437" s="9" t="s">
+      <c r="B437" s="10" t="s">
         <v>872</v>
       </c>
     </row>
     <row r="438">
-      <c r="A438" s="9" t="s">
+      <c r="A438" s="10" t="s">
         <v>873</v>
       </c>
-      <c r="B438" s="9" t="s">
+      <c r="B438" s="10" t="s">
         <v>874</v>
       </c>
     </row>
     <row r="439">
-      <c r="A439" s="9" t="s">
+      <c r="A439" s="10" t="s">
         <v>875</v>
       </c>
-      <c r="B439" s="9" t="s">
+      <c r="B439" s="10" t="s">
         <v>876</v>
       </c>
     </row>
     <row r="440">
-      <c r="A440" s="9" t="s">
+      <c r="A440" s="10" t="s">
         <v>877</v>
       </c>
-      <c r="B440" s="9" t="s">
+      <c r="B440" s="10" t="s">
         <v>878</v>
       </c>
     </row>
     <row r="441">
-      <c r="A441" s="9" t="s">
+      <c r="A441" s="10" t="s">
         <v>879</v>
       </c>
-      <c r="B441" s="9" t="s">
+      <c r="B441" s="10" t="s">
         <v>880</v>
       </c>
     </row>
     <row r="442">
-      <c r="A442" s="9" t="s">
+      <c r="A442" s="10" t="s">
         <v>881</v>
       </c>
-      <c r="B442" s="9" t="s">
+      <c r="B442" s="10" t="s">
         <v>882</v>
       </c>
     </row>
     <row r="443">
-      <c r="A443" s="9" t="s">
+      <c r="A443" s="10" t="s">
         <v>883</v>
       </c>
-      <c r="B443" s="9" t="s">
+      <c r="B443" s="10" t="s">
         <v>884</v>
       </c>
     </row>
     <row r="444">
-      <c r="A444" s="9" t="s">
+      <c r="A444" s="10" t="s">
         <v>885</v>
       </c>
-      <c r="B444" s="9" t="s">
+      <c r="B444" s="10" t="s">
         <v>886</v>
       </c>
     </row>
     <row r="445">
-      <c r="A445" s="9" t="s">
+      <c r="A445" s="10" t="s">
         <v>887</v>
       </c>
-      <c r="B445" s="9" t="s">
+      <c r="B445" s="10" t="s">
         <v>888</v>
       </c>
     </row>
     <row r="446">
-      <c r="A446" s="9" t="s">
+      <c r="A446" s="10" t="s">
         <v>889</v>
       </c>
-      <c r="B446" s="9" t="s">
+      <c r="B446" s="10" t="s">
         <v>890</v>
       </c>
     </row>
     <row r="447">
-      <c r="A447" s="9" t="s">
+      <c r="A447" s="10" t="s">
         <v>891</v>
       </c>
-      <c r="B447" s="9" t="s">
+      <c r="B447" s="10" t="s">
         <v>892</v>
       </c>
     </row>
     <row r="448">
-      <c r="A448" s="9" t="s">
+      <c r="A448" s="10" t="s">
         <v>893</v>
       </c>
-      <c r="B448" s="9" t="s">
+      <c r="B448" s="10" t="s">
         <v>894</v>
       </c>
     </row>
     <row r="449">
-      <c r="A449" s="9" t="s">
+      <c r="A449" s="10" t="s">
         <v>895</v>
       </c>
-      <c r="B449" s="9" t="s">
+      <c r="B449" s="10" t="s">
         <v>896</v>
       </c>
     </row>
     <row r="450">
-      <c r="A450" s="9" t="s">
+      <c r="A450" s="10" t="s">
         <v>897</v>
       </c>
-      <c r="B450" s="9" t="s">
+      <c r="B450" s="10" t="s">
         <v>898</v>
       </c>
     </row>
     <row r="451">
-      <c r="A451" s="9" t="s">
+      <c r="A451" s="10" t="s">
         <v>899</v>
       </c>
-      <c r="B451" s="9" t="s">
+      <c r="B451" s="10" t="s">
         <v>900</v>
       </c>
     </row>
     <row r="452">
-      <c r="A452" s="9" t="s">
+      <c r="A452" s="10" t="s">
         <v>901</v>
       </c>
-      <c r="B452" s="9" t="s">
+      <c r="B452" s="10" t="s">
         <v>902</v>
       </c>
     </row>
     <row r="453">
-      <c r="A453" s="9" t="s">
+      <c r="A453" s="10" t="s">
         <v>903</v>
       </c>
-      <c r="B453" s="9" t="s">
+      <c r="B453" s="10" t="s">
         <v>904</v>
       </c>
     </row>
     <row r="454">
-      <c r="A454" s="9" t="s">
+      <c r="A454" s="10" t="s">
         <v>905</v>
       </c>
-      <c r="B454" s="9" t="s">
+      <c r="B454" s="10" t="s">
         <v>906</v>
       </c>
     </row>
     <row r="455">
-      <c r="A455" s="9" t="s">
+      <c r="A455" s="10" t="s">
         <v>907</v>
       </c>
-      <c r="B455" s="9" t="s">
+      <c r="B455" s="10" t="s">
         <v>908</v>
       </c>
     </row>
     <row r="456">
-      <c r="A456" s="9" t="s">
+      <c r="A456" s="10" t="s">
         <v>909</v>
       </c>
-      <c r="B456" s="9" t="s">
+      <c r="B456" s="10" t="s">
         <v>910</v>
       </c>
     </row>
     <row r="457">
-      <c r="A457" s="9" t="s">
+      <c r="A457" s="10" t="s">
         <v>911</v>
       </c>
-      <c r="B457" s="9" t="s">
+      <c r="B457" s="10" t="s">
         <v>912</v>
       </c>
     </row>
     <row r="458">
-      <c r="A458" s="9" t="s">
+      <c r="A458" s="10" t="s">
         <v>913</v>
       </c>
-      <c r="B458" s="9" t="s">
+      <c r="B458" s="10" t="s">
         <v>914</v>
       </c>
     </row>
     <row r="459">
-      <c r="A459" s="9" t="s">
+      <c r="A459" s="10" t="s">
         <v>915</v>
       </c>
-      <c r="B459" s="9" t="s">
+      <c r="B459" s="10" t="s">
         <v>916</v>
       </c>
     </row>
     <row r="460">
-      <c r="A460" s="9" t="s">
+      <c r="A460" s="10" t="s">
         <v>917</v>
       </c>
-      <c r="B460" s="9" t="s">
+      <c r="B460" s="10" t="s">
         <v>918</v>
       </c>
     </row>
     <row r="461">
-      <c r="A461" s="9" t="s">
+      <c r="A461" s="10" t="s">
         <v>919</v>
       </c>
-      <c r="B461" s="9" t="s">
+      <c r="B461" s="10" t="s">
         <v>920</v>
       </c>
     </row>
     <row r="462">
-      <c r="A462" s="9" t="s">
+      <c r="A462" s="10" t="s">
         <v>921</v>
       </c>
-      <c r="B462" s="9" t="s">
+      <c r="B462" s="10" t="s">
         <v>922</v>
       </c>
     </row>
     <row r="463">
-      <c r="A463" s="9" t="s">
+      <c r="A463" s="10" t="s">
         <v>923</v>
       </c>
-      <c r="B463" s="9" t="s">
+      <c r="B463" s="10" t="s">
         <v>924</v>
       </c>
     </row>
     <row r="464">
-      <c r="A464" s="9" t="s">
+      <c r="A464" s="10" t="s">
         <v>925</v>
       </c>
-      <c r="B464" s="9" t="s">
+      <c r="B464" s="10" t="s">
         <v>926</v>
       </c>
     </row>
     <row r="465">
-      <c r="A465" s="9" t="s">
+      <c r="A465" s="10" t="s">
         <v>927</v>
       </c>
-      <c r="B465" s="9" t="s">
+      <c r="B465" s="10" t="s">
         <v>928</v>
       </c>
     </row>
     <row r="466">
-      <c r="A466" s="9" t="s">
+      <c r="A466" s="10" t="s">
         <v>929</v>
       </c>
-      <c r="B466" s="9" t="s">
+      <c r="B466" s="10" t="s">
         <v>930</v>
       </c>
     </row>
     <row r="467">
-      <c r="A467" s="9" t="s">
+      <c r="A467" s="10" t="s">
         <v>931</v>
       </c>
-      <c r="B467" s="9" t="s">
+      <c r="B467" s="10" t="s">
         <v>932</v>
       </c>
     </row>
     <row r="468">
-      <c r="A468" s="9" t="s">
+      <c r="A468" s="10" t="s">
         <v>933</v>
       </c>
-      <c r="B468" s="9" t="s">
+      <c r="B468" s="10" t="s">
         <v>934</v>
       </c>
     </row>
     <row r="469">
-      <c r="A469" s="9" t="s">
+      <c r="A469" s="10" t="s">
         <v>935</v>
       </c>
-      <c r="B469" s="9" t="s">
+      <c r="B469" s="10" t="s">
         <v>936</v>
       </c>
     </row>
     <row r="470">
-      <c r="A470" s="9" t="s">
+      <c r="A470" s="10" t="s">
         <v>937</v>
       </c>
-      <c r="B470" s="9" t="s">
+      <c r="B470" s="10" t="s">
         <v>938</v>
       </c>
     </row>
     <row r="471">
-      <c r="A471" s="9" t="s">
+      <c r="A471" s="10" t="s">
         <v>939</v>
       </c>
-      <c r="B471" s="9" t="s">
+      <c r="B471" s="10" t="s">
         <v>940</v>
       </c>
     </row>
     <row r="472">
-      <c r="A472" s="9" t="s">
+      <c r="A472" s="10" t="s">
         <v>941</v>
       </c>
-      <c r="B472" s="9" t="s">
+      <c r="B472" s="10" t="s">
         <v>942</v>
       </c>
     </row>
     <row r="473">
-      <c r="A473" s="9" t="s">
+      <c r="A473" s="10" t="s">
         <v>943</v>
       </c>
-      <c r="B473" s="9" t="s">
+      <c r="B473" s="10" t="s">
         <v>944</v>
       </c>
     </row>
     <row r="474">
-      <c r="A474" s="9" t="s">
+      <c r="A474" s="10" t="s">
         <v>945</v>
       </c>
-      <c r="B474" s="9" t="s">
+      <c r="B474" s="10" t="s">
         <v>946</v>
       </c>
     </row>
     <row r="475">
-      <c r="A475" s="9" t="s">
+      <c r="A475" s="10" t="s">
         <v>947</v>
       </c>
-      <c r="B475" s="9" t="s">
+      <c r="B475" s="10" t="s">
         <v>948</v>
       </c>
     </row>
     <row r="476">
-      <c r="A476" s="9" t="s">
+      <c r="A476" s="10" t="s">
         <v>949</v>
       </c>
-      <c r="B476" s="9" t="s">
+      <c r="B476" s="10" t="s">
         <v>950</v>
       </c>
     </row>
     <row r="477">
-      <c r="A477" s="9" t="s">
+      <c r="A477" s="10" t="s">
         <v>951</v>
       </c>
-      <c r="B477" s="9" t="s">
+      <c r="B477" s="10" t="s">
         <v>952</v>
       </c>
     </row>
     <row r="478">
-      <c r="A478" s="9" t="s">
+      <c r="A478" s="10" t="s">
         <v>953</v>
       </c>
-      <c r="B478" s="9" t="s">
+      <c r="B478" s="10" t="s">
         <v>954</v>
       </c>
     </row>
     <row r="479">
-      <c r="A479" s="9" t="s">
+      <c r="A479" s="10" t="s">
         <v>955</v>
       </c>
-      <c r="B479" s="9" t="s">
+      <c r="B479" s="10" t="s">
         <v>956</v>
       </c>
     </row>
     <row r="480">
-      <c r="A480" s="9" t="s">
+      <c r="A480" s="10" t="s">
         <v>957</v>
       </c>
-      <c r="B480" s="9" t="s">
+      <c r="B480" s="10" t="s">
         <v>958</v>
       </c>
     </row>
     <row r="481">
-      <c r="A481" s="9" t="s">
+      <c r="A481" s="10" t="s">
         <v>959</v>
       </c>
-      <c r="B481" s="9" t="s">
+      <c r="B481" s="10" t="s">
         <v>960</v>
       </c>
     </row>
     <row r="482">
-      <c r="A482" s="9" t="s">
+      <c r="A482" s="10" t="s">
         <v>961</v>
       </c>
-      <c r="B482" s="9" t="s">
+      <c r="B482" s="10" t="s">
         <v>962</v>
       </c>
     </row>
     <row r="483">
-      <c r="A483" s="9" t="s">
+      <c r="A483" s="10" t="s">
         <v>963</v>
       </c>
-      <c r="B483" s="9" t="s">
+      <c r="B483" s="10" t="s">
         <v>964</v>
       </c>
     </row>
     <row r="484">
-      <c r="A484" s="9" t="s">
+      <c r="A484" s="10" t="s">
         <v>965</v>
       </c>
-      <c r="B484" s="9" t="s">
+      <c r="B484" s="10" t="s">
         <v>966</v>
       </c>
     </row>
     <row r="485">
-      <c r="A485" s="9" t="s">
+      <c r="A485" s="10" t="s">
         <v>967</v>
       </c>
-      <c r="B485" s="9" t="s">
+      <c r="B485" s="10" t="s">
         <v>968</v>
       </c>
     </row>
     <row r="486">
-      <c r="A486" s="9" t="s">
+      <c r="A486" s="10" t="s">
         <v>969</v>
       </c>
-      <c r="B486" s="9" t="s">
+      <c r="B486" s="10" t="s">
         <v>970</v>
       </c>
     </row>
     <row r="487">
-      <c r="A487" s="9" t="s">
+      <c r="A487" s="10" t="s">
         <v>971</v>
       </c>
-      <c r="B487" s="9" t="s">
+      <c r="B487" s="10" t="s">
         <v>972</v>
       </c>
     </row>
     <row r="488">
-      <c r="A488" s="9" t="s">
+      <c r="A488" s="10" t="s">
         <v>973</v>
       </c>
-      <c r="B488" s="9" t="s">
+      <c r="B488" s="10" t="s">
         <v>974</v>
       </c>
     </row>
     <row r="489">
-      <c r="A489" s="9" t="s">
+      <c r="A489" s="10" t="s">
         <v>975</v>
       </c>
-      <c r="B489" s="9" t="s">
+      <c r="B489" s="10" t="s">
         <v>976</v>
       </c>
     </row>
     <row r="490">
-      <c r="A490" s="9" t="s">
+      <c r="A490" s="10" t="s">
         <v>977</v>
       </c>
-      <c r="B490" s="9" t="s">
+      <c r="B490" s="10" t="s">
         <v>978</v>
       </c>
     </row>
     <row r="491">
-      <c r="A491" s="9" t="s">
+      <c r="A491" s="10" t="s">
         <v>979</v>
       </c>
-      <c r="B491" s="9" t="s">
+      <c r="B491" s="10" t="s">
         <v>980</v>
       </c>
     </row>
     <row r="492">
-      <c r="A492" s="9" t="s">
+      <c r="A492" s="10" t="s">
         <v>981</v>
       </c>
-      <c r="B492" s="9" t="s">
+      <c r="B492" s="10" t="s">
         <v>982</v>
       </c>
     </row>
     <row r="493">
-      <c r="A493" s="9" t="s">
+      <c r="A493" s="10" t="s">
         <v>983</v>
       </c>
-      <c r="B493" s="9" t="s">
+      <c r="B493" s="10" t="s">
         <v>984</v>
       </c>
     </row>
     <row r="494">
-      <c r="A494" s="9" t="s">
+      <c r="A494" s="10" t="s">
         <v>985</v>
       </c>
-      <c r="B494" s="9" t="s">
+      <c r="B494" s="10" t="s">
         <v>986</v>
       </c>
     </row>
     <row r="495">
-      <c r="A495" s="9" t="s">
+      <c r="A495" s="10" t="s">
         <v>987</v>
       </c>
-      <c r="B495" s="9" t="s">
+      <c r="B495" s="10" t="s">
         <v>988</v>
       </c>
     </row>
     <row r="496">
-      <c r="A496" s="9" t="s">
+      <c r="A496" s="10" t="s">
         <v>989</v>
       </c>
-      <c r="B496" s="9" t="s">
+      <c r="B496" s="10" t="s">
         <v>990</v>
       </c>
     </row>
     <row r="497">
-      <c r="A497" s="9" t="s">
+      <c r="A497" s="10" t="s">
         <v>991</v>
       </c>
-      <c r="B497" s="9" t="s">
+      <c r="B497" s="10" t="s">
         <v>992</v>
       </c>
     </row>
     <row r="498">
-      <c r="A498" s="9" t="s">
+      <c r="A498" s="10" t="s">
         <v>993</v>
       </c>
-      <c r="B498" s="9" t="s">
+      <c r="B498" s="10" t="s">
         <v>994</v>
       </c>
     </row>
     <row r="499">
-      <c r="A499" s="9" t="s">
+      <c r="A499" s="10" t="s">
         <v>995</v>
       </c>
-      <c r="B499" s="9" t="s">
+      <c r="B499" s="10" t="s">
         <v>996</v>
       </c>
     </row>
     <row r="500">
-      <c r="A500" s="9" t="s">
+      <c r="A500" s="10" t="s">
         <v>997</v>
       </c>
-      <c r="B500" s="9" t="s">
+      <c r="B500" s="10" t="s">
         <v>998</v>
       </c>
     </row>
     <row r="501">
-      <c r="A501" s="9" t="s">
+      <c r="A501" s="10" t="s">
         <v>999</v>
       </c>
-      <c r="B501" s="9" t="s">
+      <c r="B501" s="10" t="s">
         <v>1000</v>
       </c>
     </row>
     <row r="502">
-      <c r="A502" s="9" t="s">
+      <c r="A502" s="10" t="s">
         <v>1001</v>
       </c>
-      <c r="B502" s="9" t="s">
+      <c r="B502" s="10" t="s">
         <v>1002</v>
       </c>
     </row>
     <row r="503">
-      <c r="A503" s="9" t="s">
+      <c r="A503" s="10" t="s">
         <v>1003</v>
       </c>
-      <c r="B503" s="9" t="s">
+      <c r="B503" s="10" t="s">
         <v>1004</v>
       </c>
     </row>
     <row r="504">
-      <c r="A504" s="9" t="s">
+      <c r="A504" s="10" t="s">
         <v>1005</v>
       </c>
-      <c r="B504" s="9" t="s">
+      <c r="B504" s="10" t="s">
         <v>1006</v>
       </c>
     </row>
     <row r="505">
-      <c r="A505" s="9" t="s">
+      <c r="A505" s="10" t="s">
         <v>1007</v>
       </c>
-      <c r="B505" s="9" t="s">
+      <c r="B505" s="10" t="s">
         <v>1008</v>
       </c>
     </row>
     <row r="506">
-      <c r="A506" s="9" t="s">
+      <c r="A506" s="10" t="s">
         <v>1009</v>
       </c>
-      <c r="B506" s="9" t="s">
+      <c r="B506" s="10" t="s">
         <v>1010</v>
       </c>
     </row>
     <row r="507">
-      <c r="A507" s="9" t="s">
+      <c r="A507" s="10" t="s">
         <v>1011</v>
       </c>
-      <c r="B507" s="9" t="s">
+      <c r="B507" s="10" t="s">
         <v>1012</v>
       </c>
     </row>
     <row r="508">
-      <c r="A508" s="9" t="s">
+      <c r="A508" s="10" t="s">
         <v>1013</v>
       </c>
-      <c r="B508" s="9" t="s">
+      <c r="B508" s="10" t="s">
         <v>1014</v>
       </c>
     </row>
     <row r="509">
-      <c r="A509" s="9" t="s">
+      <c r="A509" s="10" t="s">
         <v>1015</v>
       </c>
-      <c r="B509" s="9" t="s">
+      <c r="B509" s="10" t="s">
         <v>1016</v>
       </c>
     </row>
     <row r="510">
-      <c r="A510" s="9" t="s">
+      <c r="A510" s="10" t="s">
         <v>1017</v>
       </c>
-      <c r="B510" s="9" t="s">
+      <c r="B510" s="10" t="s">
         <v>1018</v>
       </c>
     </row>
     <row r="511">
-      <c r="A511" s="9" t="s">
+      <c r="A511" s="10" t="s">
         <v>1019</v>
       </c>
-      <c r="B511" s="9" t="s">
+      <c r="B511" s="10" t="s">
         <v>1020</v>
       </c>
     </row>
     <row r="512">
-      <c r="A512" s="9" t="s">
+      <c r="A512" s="10" t="s">
         <v>1021</v>
       </c>
-      <c r="B512" s="9" t="s">
+      <c r="B512" s="10" t="s">
         <v>1022</v>
       </c>
     </row>
     <row r="513">
-      <c r="A513" s="9" t="s">
+      <c r="A513" s="10" t="s">
         <v>1023</v>
       </c>
-      <c r="B513" s="9" t="s">
+      <c r="B513" s="10" t="s">
         <v>1024</v>
       </c>
     </row>
     <row r="514">
-      <c r="A514" s="9" t="s">
+      <c r="A514" s="10" t="s">
         <v>1025</v>
       </c>
-      <c r="B514" s="9" t="s">
+      <c r="B514" s="10" t="s">
         <v>1026</v>
       </c>
     </row>
     <row r="515">
-      <c r="A515" s="9" t="s">
+      <c r="A515" s="10" t="s">
         <v>1027</v>
       </c>
-      <c r="B515" s="9" t="s">
+      <c r="B515" s="10" t="s">
         <v>1028</v>
       </c>
     </row>
     <row r="516">
-      <c r="A516" s="9" t="s">
+      <c r="A516" s="10" t="s">
         <v>1029</v>
       </c>
-      <c r="B516" s="9" t="s">
+      <c r="B516" s="10" t="s">
         <v>1030</v>
       </c>
     </row>
     <row r="517">
-      <c r="A517" s="9" t="s">
+      <c r="A517" s="10" t="s">
         <v>1031</v>
       </c>
-      <c r="B517" s="9" t="s">
+      <c r="B517" s="10" t="s">
         <v>1032</v>
       </c>
     </row>
     <row r="518">
-      <c r="A518" s="9" t="s">
+      <c r="A518" s="10" t="s">
         <v>1033</v>
       </c>
-      <c r="B518" s="9" t="s">
+      <c r="B518" s="10" t="s">
         <v>1034</v>
       </c>
     </row>
     <row r="519">
-      <c r="A519" s="9" t="s">
+      <c r="A519" s="10" t="s">
         <v>1035</v>
       </c>
-      <c r="B519" s="9" t="s">
+      <c r="B519" s="10" t="s">
         <v>1036</v>
       </c>
     </row>
     <row r="520">
-      <c r="A520" s="9" t="s">
+      <c r="A520" s="10" t="s">
         <v>1037</v>
       </c>
-      <c r="B520" s="9" t="s">
+      <c r="B520" s="10" t="s">
         <v>1038</v>
       </c>
     </row>
     <row r="521">
-      <c r="A521" s="9" t="s">
+      <c r="A521" s="10" t="s">
         <v>1039</v>
       </c>
-      <c r="B521" s="9" t="s">
+      <c r="B521" s="10" t="s">
         <v>1040</v>
       </c>
     </row>
     <row r="522">
-      <c r="A522" s="9" t="s">
+      <c r="A522" s="10" t="s">
         <v>1041</v>
       </c>
-      <c r="B522" s="9" t="s">
+      <c r="B522" s="10" t="s">
         <v>1042</v>
       </c>
     </row>
     <row r="523">
-      <c r="A523" s="9" t="s">
+      <c r="A523" s="10" t="s">
         <v>1043</v>
       </c>
-      <c r="B523" s="9" t="s">
+      <c r="B523" s="10" t="s">
         <v>1044</v>
       </c>
     </row>
     <row r="524">
-      <c r="A524" s="9" t="s">
+      <c r="A524" s="10" t="s">
         <v>1045</v>
       </c>
-      <c r="B524" s="9" t="s">
+      <c r="B524" s="10" t="s">
         <v>1046</v>
       </c>
     </row>
     <row r="525">
-      <c r="A525" s="9" t="s">
+      <c r="A525" s="10" t="s">
         <v>1047</v>
       </c>
       <c r="B525" s="10" t="s">
@@ -9129,7 +9137,7 @@
       </c>
     </row>
     <row r="526">
-      <c r="A526" s="9" t="s">
+      <c r="A526" s="10" t="s">
         <v>1049</v>
       </c>
       <c r="B526" s="9" t="s">
@@ -9137,10 +9145,10 @@
       </c>
     </row>
     <row r="527">
-      <c r="A527" s="9" t="s">
+      <c r="A527" s="10" t="s">
         <v>1051</v>
       </c>
-      <c r="B527" s="9" t="s">
+      <c r="B527" s="10" t="s">
         <v>1052</v>
       </c>
     </row>
@@ -9148,7 +9156,7 @@
       <c r="A528" s="10" t="s">
         <v>1053</v>
       </c>
-      <c r="B528" s="9" t="s">
+      <c r="B528" s="10" t="s">
         <v>1054</v>
       </c>
     </row>
@@ -9156,8 +9164,16 @@
       <c r="A529" s="9" t="s">
         <v>1055</v>
       </c>
-      <c r="B529" s="9" t="s">
+      <c r="B529" s="10" t="s">
         <v>1056</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" s="10" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B530" s="10" t="s">
+        <v>1058</v>
       </c>
     </row>
   </sheetData>
